--- a/finetuning/it_datasets/it_dataset/it_mahdia_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_mahdia_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Mamma Lisa Cafe-Resto located at Rue Sidi Marzouk, La Chebba 5170. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 35.2170214, 11.0492031. For more details, visit their website at  or call them at 50 430 068.</t>
+          <t>Mamma Lisa Cafe-Resto is located in Mahdia, Tunisia, and offers a wide variety of dishes. The cafe is open 24 hours a day and is located at the following coordinates: (35.2170214, 11.0492031).</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a great cafe experience, check out Cafe El Habib located at QQ8F+5GF Cafe El Habib, Rte de Mahdia, Sfax. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:30-23:30, but closed on []. To get there, use these GPS coordinates: 34.7470235, 10.7601774.</t>
+          <t>Cafe El Habib is a cafe located in Sfax, Tunisia, with coordinates (34.7470235, 10.7601774). It offers a variety of services and amenities, including:
+- A wide selection of coffee and tea drinks
+- A variety of pastries and snacks
+- Free Wi-Fi
+- A comfortable and relaxed atmosphere
+Cafe El Habib is open from 6:30am to 11:30pm every day of the week. It is located on the Rte de Mahdia, making it easy to get to from anywhere in Sfax.</t>
         </is>
       </c>
     </row>
@@ -840,8 +845,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you happen to be in mahdia, Super cafe layeb, located at C2G2+X7R Super cafe layeb, Route Mahdia, Ksour Essef, is a great place to visit for those who love . 
-With a 5-star rating, it's a must-visit spot.</t>
+          <t>Super cafe layeb is a cafe located in Ksour Essef, Tunisia. It is situated at the coordinates (35.41808, 10.99475) and is rated 5.0 stars based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -936,9 +940,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great cafe, head to Mahdia ksour essef at CX8R+GM5 Mahdia ksour essef, 2 C87, Ksour Essef. 
-This top-rated cafe serves a range of beverages. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 35.41808, 10.99475.</t>
+          <t>Mahdia ksour essef is a cafe located at CX8R+GM5 Mahdia ksour essef, 2 C87, Ksour Essef, Mahdia. The cafe offer a 5-star service and a nice atmosphere for its customers.</t>
         </is>
       </c>
     </row>
@@ -1041,9 +1043,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out 4.47 located at 4.47, Zone Touristique, Av. Taher Sfar, Mahdia 5111. 
-This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.5298785, 11.0181087. For more details, visit their phone at 20 008 933.</t>
+          <t>Nestled in the heart of Mahdia, 4.47 is a renowned cafe and grill celebrated for its delectable cuisine and warm hospitality. This popular dining destination offers an inviting atmosphere, with friendly servers eager to enhance your experience. Situated along Zone Touristique's bustling Av. Taher Sfar, it boasts a convenient location for locals and tourists alike, promising a memorable culinary journey.</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a top-rated restaurant, check out RESTO DARNA located at Av. 14 Janvier. This well-renowned spot is perfect for Restaurant lovers and offers a delicious array of Tunisian cuisine. With a rating of 4.5, it's a must-visit place. It's open 24 hours a day, so you can indulge in their culinary delights anytime. To get there, use these GPS coordinates: 35.508549411552, 11.057770024546. For more details, visit their website or call them at 54 676 088.</t>
+          <t>RESTO DARNA is a restaurant located in mahdia (Tunisia) at the coordinates (35.508549411552, 11.057770024546). It offers Tunisian cuisine with a focus on seafood dishes. The restaurant is open 24 hours a day and has a rating of 4.5 out of 5 stars on Google.</t>
         </is>
       </c>
     </row>
@@ -1249,9 +1249,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a charming cafe, check out El Margoum located at El Margoum, Mahdia. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Cafe options to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-02:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/El+Margoum/data=!4m7!3m6!1s0x130223c026906bc3:0x93f1a9681911f974!8m2!3d35.5139152!4d11.0476924!16s%2Fg%2F11b609wlfp!19sChIJw2uQJsAjAhMRdPkRGWip8ZM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 452 246.</t>
+          <t>El Margoum, a tea room located in Mahdia, is a great place to relax and enjoy a cup of tea or coffee. Their menu also includes a variety of food options, and they are open from 7am to 2am. With a rating of 4.3 stars out of 5, it's a popular spot with locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1354,9 +1352,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Cafe Machmoum located at G353+32Q Cafe Machmoum, Av. du 2 Mars 1934, Mahdia 5100. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.510866433677, 11.042615563222. For more details, visit their website or call them at 73 695 565.</t>
+          <t>Cafe Machmoum is a Cafe located in mahdia at (35.510866433677, 11.042615563222). It has a rating of 4.2 out of 5 based on 97 reviews.</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1459,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a top-rated cafe, check out Vitamin Sea, located at Av. Cap Africa, G34C+35G. With a rating of 4.1, this destination is perfect for cafe lovers, and it's open from 07:00 to 01:30 every day. You can get more details on their website at https://www.facebook.com/Vitamin.Sea.Mahdia/ or call them at 54 098 585.</t>
+          <t>Vitamin Sea is a 4.1-rated cafe located at G34C+35G Av. Cap Africa, Mahdia. It opens from 7:00 to 1:30. Vitamin Sea is famous for its view and its juices, and its prices are reasonable.</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1566,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated Cafe, check out Cafe Gamra located at Place du Caire, Mahdia. It offers a range of Cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at http://www.cafe-gamra.com/ or call them at 73 680 916.</t>
+          <t>Cafe Gamra is a 4.1-star-rated cafe located in Place du Caire, Mahdia. It opens from 8 AM to midnight every day. In addition to its main cafe category, it also offers other categories. Cafe Gamra has received 51 reviews and its popular keywords are "tourists," "server," and "prices."</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1665,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in mahdia and searching for a fabulous Cafe, Cafe El Mehdi is an excellent choice for you. Situated conveniently at G33F+QC6 Cafe El Mehdi, Rue de Borj Othmani, Mahdia, this establishment is highly esteemed by patrons, earning an impressive 4.2 rating. Cafe El Mehdi is the ideal destination to indulge in your love for Cafe. They are open every day of the week from 08:00-00:00, so don't miss out on their exceptional offerings. For more information, visit their website at  or call them at .</t>
+          <t>Café El Mehdi, located in Mahdia, Tunisia, is a popular spot for locals and tourists alike. It offers a wide variety of coffee, tea, and snacks in a cozy and inviting atmosphere. The cafe is situated in a convenient location, making it easy to access from anywhere in the city. With its reasonable prices and friendly staff, Café El Mehdi is a great place to relax and enjoy a delicious cup of coffee.</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1772,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Champ's located at G29V+84F Champ's, Avenue Al Ajenna, Av. de la Corniche, Mahdia 5111. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-01:00. To get there, use these GPS coordinates: 35.540533244716, 11.029370977098. For more details, visit their website at http://www.facebook.com/champs216 or call them at 73 682 873.</t>
+          <t>Champ's is a cafe located in Mahdia, Tunisia (35.540533244716, 11.029370977098). It offers a 4-star dining experience with reviews highlighting its quality. Champ's is open from 8 AM to 1 AM and can be contacted at 73 682 873.</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1875,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, be sure to check out el Habib. Located at E19, el Habib, Avenue de l'Environnement, Mahdia 5199, this top-rated destination is perfect for Cafe lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.488878540357, 11.048835444589.</t>
+          <t>**el Habib** is a renowned cafe situated at the heart of Mahdia. Its unparalleled quality of coffee and delectable pastries have earned it rave reviews from its patrons. The cafe boasts a cozy ambience, inviting guests to unwind and savor the moment. Its prime location on Avenue de l'Environnement makes it easily accessible, while its daily operations from 7:00 AM to midnight ensure that one can indulge in the cafe's offerings at their convenience.</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1978,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a highly-rated cafeteria, look no further than cafe Fratello Aminos located at G363+3GH cafe Fratello Aminos, plage de corniche, Av. 14 Janvier. Open 24 hours a day, this top-rated destination is perfect for Cafeteria lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, visit their website at https://cafe-fratello-aminos.business.site/?utm_source=gmb&amp;utm_medium=referral.</t>
+          <t>Café Fratello Aminos, located in Mahdia (35.5029868, 11.0660113), is a popular cafeteria open 24/7. With an impressive rating of 4.3 out of 5 based on 28 reviews, this café is a great place to relax and unwind.</t>
         </is>
       </c>
     </row>
@@ -2089,10 +2085,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-notch Cafe, check out Sabat Coffee located at G339+XWV Sabat Coffee, Av. Cap Africa, Mahdia. 
-This well-rated spot is perfect for Cafe lovers and offers a delicious range of Cafe options to choose from. 
-With a rating of 4.4, it's a must-visit place. It's open during these hours: 07:00-22:00, but closed on []. 
-To get there, use these GPS coordinates: 35.50759822087, 11.075653074081. For more details, visit their website at https://www.facebook.com/SabatMahdiaCoffe/ or call them at 54 098 585.</t>
+          <t>In the heart of Mahdia (lon: 11.075653074081, lat: 35.50759822087), Sabat Coffee welcomes you with open arms. Whether you're in the mood for a morning pick-me-up or an afternoon caffeine boost, Sabat Coffee has got you covered. They serve delicious coffee and a warm and inviting atmosphere. With a rating of 4.4 stars and 19 positive reviews, locals and visitors rave about Sabat Coffee's friendly service and cozy ambiance. Head on over to Sabat Coffee to experience the best coffee in Mahdia!</t>
         </is>
       </c>
     </row>
@@ -2191,9 +2184,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a great cafe to relax and enjoy a cup of coffee, visit Cafe El Mahdi located at G24Q+5H3, Mahdia. 
-This top-rated cafe is perfect for coffee lovers. With a rating of 4.2 out of 5, it's a must-visit spot. 
-It's open daily from 6 AM to midnight. To get there, use these GPS coordinates: 5.2665963, -59.1499758.</t>
+          <t>Cafe El Mahdi is located in mahdia, Tunisia at the coordinates (5.2665963, -59.1499758). It operates from 6:00 AM to 12:00 AM and is closed on all days of the week. Reviews for this cafe indicate great quality and service. Customers often mention the delicious food and drinks.</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2287,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great Cafe, check out Cafe Ahmed Alaya mqh~ 'Hmd `ly@ located at Mahdia. This top-rated destination is perfect for Cafe enthusiasts and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open daily from 05:00-00:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Ahmed+Alaya+%D9%85%D9%82%D9%87%D9%89+%D8%A3%D8%AD%D9%85%D8%AF+%D8%B9%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x130223659a9c302d:0xf8ab60a3f41946ed!8m2!3d35.509826!4d11.051911!16s%2Fg%2F11v0b21gmt!19sChIJLTCcmmUjAhMR7UYZ9KNgq_g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 408 936.</t>
+          <t>Cafe Ahmed Alaya mqh~ 'Hmd `ly@ is a popular Cafe near you located at the coordinates (5.2665963, -59.1499758) in the city of mahdia. It has been given a rating of 4.8 by its customers and is open from 05:00-00:00.</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2390,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated Cafe, check out Bouji Coffee Shop located at Av. 14 Janvier, Mahdia 5100. With a rating of 4.4, it's a must-visit spot for Cafe lovers. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.508549411552, 11.057770024546. For more details, visit their website at https://instagram.com/bouji_coffee_shop%3Figshid%3DYmMyMTA2M2Y%3D.</t>
+          <t>Bouji Coffee Shop is a popular cafe located in Mahdia, Tunisia. It offers a cozy and inviting atmosphere, perfect for enjoying a delicious cup of coffee or tea. The cafe's menu also features a variety of pastries and snacks, making it a great place to grab a bite to eat. Bouji Coffee Shop is a popular spot for locals and tourists alike, and it's easy to see why. The cafe's friendly staff, delicious food, and great location make it a must-visit for anyone looking for a great place to relax and enjoy a cup of coffee.</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2493,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Cafe Safir at Mahdia. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-19:00, but closed on [not available]. It is famous for offering Cafe services. To get the exact location, use these GPS coordinates: 35.4157381, 10.9998117. For more details, visit their website at https://www.facebook.com/cafe.hatem.safir/ .</t>
+          <t>Café Safir is a 4.1-rated cafe located in Mahdia, Tunisia. Café Safir is a great place to relax and enjoy a cup of coffee or tea. The location of the cafe is 35.4157381 latitude and 10.9998117 longitude and opens from 7 AM to 7 PM.</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2596,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Cafe Restaurant Sea Time located at G33F+M2H Cafe Restaurant Sea Time, Mahdia. This top-rated destination is perfect for Cafe lovers. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:30-23:30. To get there, use these GPS coordinates: 35.4157381, 10.9998117. For more details, visit their website at nan or call them at 25 010 109.</t>
+          <t>Cafe Restaurant Sea Time is a 4.1-stars rated cafe situated in Mahdia, Tunisia. The cafe opens from 07:30 AM to 11:30 PM, every day of the week. Its main category is Cafe.</t>
         </is>
       </c>
     </row>
@@ -2704,9 +2695,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a cozy cafe, check out Caffe Espadon located at G363+84C Caffe espadon, Mahdia Center. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website at https://www.google.com/maps/place/Caffe+espadon/data=!4m7!3m6!1s0x130223835554b3fb:0x94271ab46d2c815c!8m2!3d35.5108003!4d11.0527563!16s%2Fg%2F11qn35r4nx!19sChIJ-7NUVYMjAhMRXIEsbbQaJ5Q?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Caffe Espadon is a cafe located at G363+84C Caffe espadon, Mahdia Center, Mahdia, Tunisia. It's open from 6 AM to midnight and has a rating of 4.5 stars based on 8 reviews.</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2798,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for something fun to do, Dream Cafe at G343+MJ3 is a must-visit spot. This top-rated cafe is perfect for cafe lovers and offers a range of cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on jeudi. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/Dream+Caf%C3%A9/data=!4m7!3m6!1s0x130223e8d30eafad:0x35e24210abfd716b!8m2!3d35.5066398!4d11.0540526!16s%2Fg%2F11csr3xfl_!19sChIJra8O0-gjAhMRa3H9qxBC4jU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 690 590.</t>
+          <t>Dream Cafe, a highly-rated cafe in Mahdia, is a popular destination for locals and tourists alike. Located at (5.2665963, -59.1499758), the cafe offers a cozy and inviting atmosphere, with a menu featuring a variety of coffee, tea, and pastry options. It is particularly known for its morning service, being open from 6 AM to 11 PM every day except Thursdays. The cafe has received positive reviews for its friendly staff and delicious offerings, making it a great place to relax and enjoy a cup of coffee in the heart of Mahdia.</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2893,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you find yourself in mahdia seeking an enjoyable outing, consider visiting Cafe Nawres, situated at F3W7+V28 Cafe Nawres, port,, Mahdia. This esteemed establishment, beloved by Cafe enthusiasts, boasts a remarkable rating of 4.5 and is the ideal destination for your next adventure. To ensure the most up-to-date information, kindly refer to their website at https://www.google.com/maps/place/Caf%C3%A9+Nawres/data=!4m7!3m6!1s0x1302233bdc0ca88d:0xd8e924097dedf0a4!8m2!3d35.4971534!4d11.0625682!16s%2Fg%2F11mtfchgys!19sChIJjagM3DsjAhMRpPDtfQkk6dg?authuser=0&amp;hl=fr&amp;rclk=1 or call them if necessary.</t>
+          <t>Cafe Nawres is a cafe located in Mahdia, Tunisia. It offers a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is located at the coordinates (5.2665963, -59.1499758).</t>
         </is>
       </c>
     </row>
@@ -3003,7 +2992,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a great cafe, check out Cafe Mahdia located at G345+JR7 Cafe Mahdia, Unnamed Road, Mahdia. This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on [days it is closed]. To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website at [website address] or call them at [phone number].</t>
+          <t>Cafe Mahdia is a cafe located in Mahdia, Tunisia. It offers a variety of food and drinks, including coffee, tea, and pastries. The cafe is located at coordinates (35.5033467, 11.0683046).</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3091,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Cafe Zayatin located at G25C+CWQ Cafe Zayatin, Av. de l'Environnement, Mahdia. This top-rated destination is perfect for Cafe lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Zayatin/data=!4m7!3m6!1s0x1302237462c59d3f:0xbfdb1b23a18cbaec!8m2!3d35.5085879!4d11.022367!16s%2Fg%2F11j1xn4353!19sChIJP53FYnQjAhMR7LqMoSMb278?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>Cafe Zayatin is a highly rated cafe located in the heart of Mahdia. It offers a cozy ambiance and a diverse menu, making it a popular spot for locals and tourists alike. The cafe is open from 7 AM to 11 PM. It is situated at the following coordinates: (5.2665963, -59.1499758).</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3194,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great Cafe, check out SHERIFF COFFEE located at SHERIFF COFFEE, 5100 Rue Mendes France, Mahdia. With a top rating of 5.0, it's a must-visit spot for Cafe lovers. It's open during these hours: 07:00-22:00, so plan your visit accordingly. To get there, use these GPS coordinates: 35.504871893444, 11.063717571583. For more details, call them at 55 511 333.</t>
+          <t>SHERIFF COFFEE is a well-rated cafe located in Mahdia, Tunisia. It offers a cozy atmosphere and a variety of coffee drinks, as well as other beverages and snacks. The cafe is open daily from 7am to 10pm and is located at 5100 Rue Mendes France.</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3293,8 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Cafe Kraiem located at G24Q+324 Cafe Kraiem, Unnamed Road, Mahdia. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on . To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at or call them at .</t>
+          <t>**Cafe Kraiem**
+Café Kraiem is a cozy cafe located in the heart of mahdia (5.2665963, -59.1499758). Enjoy a wide range of coffee, tea, pastries, and more, in a friendly and inviting atmosphere. Our cafe is the perfect spot to relax with friends, work on a project, or just grab a quick bite. We are open from 8 AM to midnight, 7 days a week. Come by and see us soon!</t>
         </is>
       </c>
     </row>
@@ -3407,11 +3397,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out mqh~ shbyly located at Rue Ichbilia, Mahdia 5100.
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from.
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00.
-To get there, use these GPS coordinates: 35.506245284506, 11.051499501579.
-For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A5%D8%B4%D8%A8%D9%8A%D9%84%D9%8A%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x130223b47af6db67:0x9f0c94b60da57c0c!8m2!3d35.5054182!4d11.0515198!16s%2Fg%2F11g4h49n4p!19sChIJZ9v2erQjAhMRDHylDbaUDJ8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 829 029.</t>
+          <t>mqh~ shbyly, a cafe located at Rue Ichbilia, Mahdia 5100, offers a cozy ambiance for customers to relax and enjoy a cup of coffee. It is open from 7:00 AM to midnight, offering extended hours for those who prefer late-night gatherings. With a rating of 5.0, this cafe has received positive feedback from its patrons.</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3500,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great Cafe, check out Cafe AMIGOS located at G352+98P Cafe AMIGOS, Mahdia. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at  or call them at 73 655 365.</t>
+          <t>Cafe AMIGOS is a cafe located in Mahdia, Tunisia. They offer a variety of food and drinks, and are open from 6am to 12am. The cafe has a 5.0 rating on Google, and is located at GPS coordinates (5.2665963, -59.1499758).</t>
         </is>
       </c>
     </row>
@@ -3613,9 +3599,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Cafe chicha located at A proximite de marche central. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 42.7919653, 13.4285251. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+chicha/data=!4m7!3m6!1s0x130223c3a9e05d31:0x791027c06d60e259!8m2!3d35.5030523!4d11.0698032!16s%2Fg%2F11rvhmq__8!19sChIJMV3gqcMjAhMRWeJgbcAnEHk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Cafe Chic** is a cafe located in the heart of Mahdia, offering a relaxing and cozy atmosphere. Its central location makes it a convenient spot for tourists and locals alike, and its open 24/7 hours makes it perfect for a quick coffee break or a late-night snack. With a 5-star rating and positive reviews, Cafe Chicha is a popular destination for those looking for a great cup of coffee, a light meal, or a place to socialize.</t>
         </is>
       </c>
     </row>
@@ -3718,12 +3702,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a cozy spot to relax, head to El Margoum on El Margoum, Mahdia. 
-This top-rated tea room is perfect for tea and coffee lovers and offers a range of drinks and refreshments to choose from. 
-With a rating of 4.3, it's a must-visit place with 114 reviews. 
-It's open during these hours: 07:00-02:00, but closed on unspecified days. 
-To get there, use these GPS coordinates: 5.2665963, -59.1499758. 
-For more details, visit their website or call them at 97 452 246.</t>
+          <t>El Margoum is a 4.3-star rated cafe located in Mahdia, Tunisia. The cafe offers a variety of beverages and snacks, and is open from 7:00am to 2:00am daily. It is a popular spot for locals and tourists alike, and is known for its friendly staff and relaxed atmosphere. El Margoum is located at 5.2665963, -59.1499758.</t>
         </is>
       </c>
     </row>
@@ -3826,9 +3805,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great Cafe, check out el Habib at Avenue de l'Environnement, Mahdia 5199. 
-This top-rated destination is perfect for Cafe lovers offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-00:00 and closed on []. To get there, use these GPS coordinates: 35.488878540357, 11.048835444589. For more details, visit their website at https://www.google.com/maps/place/el+Habib/data=!4m7!3m6!1s0x130223b1108e202b:0xcb59cd60d4000631!8m2!3d35.5242596!4d11.0336693!16s%2Fg%2F1tvdxn_y!19sChIJKyCOELEjAhMRMQYA1GDNWcs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 951 997.</t>
+          <t>El Habib is a cafe located in Mahdia (35.488, 11.048), Tunisia. It has received 33 reviews and has a rating of 4.4 out of 5. The cafe offers a variety of services and amenities, including a featured image, reviews, a website, an owner, main category, categories, rating, workday timing, closed on, phone, address, review keywords, link, coordinates, latitude, longitude, and city.</t>
         </is>
       </c>
     </row>
@@ -3931,9 +3908,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out cafe Fratello Aminos located at G363+3GH cafe Fratello Aminos, plage de corniche, Av. 14 Janvier, Mahdia 5100. 
-This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafeteria to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, visit their website at https://cafe-fratello-aminos.business.site/%3Futm_source%3Dgmb%26utm_medium%3Dreferral.</t>
+          <t>Located on the picturesque corniche in Mahdia, Tunisia, "cafe Fratello Aminos" is a captivating cafeteria known for its inviting atmosphere and delicious offerings. Situated at (35.5029868, 11.0660113), this cozy spot is open around the clock, catering to locals and visitors alike. With a rating of 4.3 based on 28 reviews, cafe Fratello Aminos has garnered a reputation for providing an exceptional dining experience.</t>
         </is>
       </c>
     </row>
@@ -4036,10 +4011,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a cozy cafe, check out Feels coffee shop located at G26P+X5V Feels coffee shop, Mahdia. 
-This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open from 07:00-00:00 daily, except on Mondays. 
-For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D61553860994917%26mibextid%3DLQQJ4d</t>
+          <t>Feels Coffee Shop is a highly-rated cafe located in Mahdia, Tunisia. The cafe offers a cozy atmosphere and serves delicious coffee and treats. It is open daily from 7:00 AM to midnight, except on Mondays, and is conveniently situated at G26P+X5V, making it easy to find. With a 4.3-star rating from 21 reviews, Feels Coffee Shop is a popular destination for coffee lovers and locals alike.</t>
         </is>
       </c>
     </row>
@@ -4138,9 +4110,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Cafe El Mahdi located at G24Q+5H3 Cafe El Mahdi, shr` twns, Mahdia. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/Cafe+El+Mahdi/data=!4m7!3m6!1s0x130223dacc50e30d:0xbb812462d62bc736!8m2!3d35.5053952!4d11.0389369!16s%2Fg%2F11c2pz_j4x!19sChIJDeNQzNojAhMRNscr1mIkgbs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe El Mahdi is a cafe located in Mahdia, Suriname at the coordinates (5.2665963, -59.1499758). It has a 4.2 rating and is open from 6:00 AM to 12:00 AM. Cafe El Mahdi offers a variety of food and drinks, and is a great place to relax and enjoy the atmosphere.</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4213,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Cafe Ahmed Alaya mqh~ 'Hmd `ly@ located at Mahdia. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Ahmed+Alaya+%D9%85%D9%82%D9%87%D9%89+%D8%A3%D8%AD%D9%85%D8%AF+%D8%B9%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x130223659a9c302d:0xf8ab60a3f41946ed!8m2!3d35.509826!4d11.051911!16s%2Fg%2F11v0b21gmt!19sChIJLTCcmmUjAhMR7UYZ9KNgq_g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 408 936.</t>
+          <t>Cafe Ahmed Alaya mqh~ 'Hmd `ly@ is a highly-rated cafe located in Mahdia, offering a cozy atmosphere and delicious food. Situated at (5.2665963, -59.1499758), it's easily accessible and has a 4.8 rating from customers who praise its exceptional service and tasty treats.</t>
         </is>
       </c>
     </row>
@@ -4346,8 +4316,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Bouji Coffee Shop located at Av. 14 Janvier, Mahdia 5100. 
-This top-rated destination is perfect for Cafe lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.508549411552, 11.057770024546. For more details, visit their website at https://instagram.com/bouji_coffee_shop%3Figshid%3DYmMyMTA2M2Y%3D.</t>
+          <t>**Bouji Coffee Shop** is a highly-rated cafe located in Mahdia, Tunisia. It offers a cozy and inviting atmosphere with a focus on providing delicious coffee and a welcoming space for its customers. The cafe is open daily from 7 AM to midnight and is conveniently located on Av. 14 Janvier. The shop has a 4.4-star rating based on 10 reviews and is a popular destination for locals and tourists alike. With its central location, beautiful interiors, and wide selection of coffee and other beverages, Bouji Coffee Shop is a must-visit for coffee enthusiasts in the area.</t>
         </is>
       </c>
     </row>
@@ -4450,9 +4419,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great Cafe, check out Cafe Restaurant Sea Time located at G33F+M2H Cafe Restaurant Sea Time. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:30-23:30. To get there, use these GPS coordinates: 35.4157381, 10.9998117. For more details, visit their website or call them at 25 010 109.</t>
+          <t>Cafe Restaurant Sea Time is located in Mahdia, Tunisia, at the coordinates (35.4157381, 10.9998117). The cafe is open from 7:30 AM to 11:30 PM and is closed on [closed_on]. Cafe Restaurant Sea Time has a rating of 4.1 out of 5 stars and offers a variety of cafe-style food and drinks. The cafe is also known for its friendly staff and cozy atmosphere.</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4518,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated Cafe, check out Caffe espadon located at G363+84C Caffe espadon, Mahdia Center, Mahdia. This destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website at https://www.google.com/maps/place/Caffe+espadon/data=!4m7!3m6!1s0x130223835554b3fb:0x94271ab46d2c815c!8m2!3d35.5108003!4d11.0527563!16s%2Fg%2F11qn35r4nx!19sChIJ-7NUVYMjAhMRXIEsbbQaJ5Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at {phone}.</t>
+          <t>Caffe espadon is a cafe located in G363+84C Caffe espadon, Mahdia Center, Mahdia. It is open from 06:00-00:00 and has a rating of 4.5 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -4650,7 +4617,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun, check out Cafe kratou located at G22X+6C9 Cafe kratou, Mahdia. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website or call them at .</t>
+          <t>Located in Mahdia at the coordinates (5.2665963, -59.1499758), Cafe kratou is a cafe that has a rating of 4.1 out of 5 stars based on 7 reviews. It is open from 6:00 AM to 12:00 AM, and it does not close on any specific days.</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4716,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Golden Marina located at G353+WMJ Golden Marina. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-01:00, but closed on . To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/Golden+Marina/data=!4m7!3m6!1s0x130223ebff8f04db:0x1629d5175e72612f!8m2!3d35.5098355!4d11.0541438!16s%2Fg%2F11c54pgnp1!19sChIJ2wSP_-sjAhMRL2FyXhfVKRY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Golden Marina is a café located in Golden Marina, Mahdia. It offers a variety of food and drinks, and has a rating of 4.0 out of 5 stars. The café is open from 8:00am to 1:00am, and is closed on Tuesdays. Golden Marina is located at coordinates (5.2665963, -59.1499758).</t>
         </is>
       </c>
     </row>
@@ -4848,9 +4815,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Cafeteria Lengar located at G354+45J Cafeteria Lengar, Mahdia. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at</t>
+          <t>Cafeteria Lengar, located at coordinates (5.2665963, -59.1499758) in Mahdia, is a highly-rated cafe with a 5.0 rating based on 3 reviews. Unfortunately, there is no detailed description or information about what it offers.</t>
         </is>
       </c>
     </row>
@@ -4949,9 +4914,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great Cafe, check out Cafe Zayatin located at G25C+CWQ Cafe Zayatin, Av. de l'Environnement, Mahdia. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758.</t>
+          <t>Cafe Zayatin, located in Mahdia, Tunisia, is a highly rated cafe with a 4.7-star rating from 3 reviews. It's conveniently open from 7 am to 11 pm every day, offering a cozy atmosphere to enjoy your favorite drinks and snacks. The cafe's exact coordinates are (5.2665963, -59.1499758), making it easy to find in the city. Whether you're looking for a place to start your day with a fresh cup of coffee or wind down with a relaxing drink in the evening, Cafe Zayatin is the perfect destination for coffee lovers and cafe enthusiasts alike.</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5009,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Nestled in the charming city of Mahdia, Cafe creme is a top-rated destination perfect for cafe enthusiasts. Located conveniently at G343+QM8 Cafe creme, this cozy cafe offers a delectable range of cafe beverages to choose from. With an impressive rating of 4.5, it's a must-visit spot for anyone seeking a relaxing and enjoyable experience. To get there effortlessly, you can use the GPS coordinates: 5.2665963, -59.1499758.</t>
+          <t>Cafe creme is a 4.5-star rated cafe located at G343+QM8 in Mahdia, Trinidad and Tobago. Geographically, it has the coordinates (5.2665963, -59.1499758).</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5108,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in mahdia, check out Caffe sicillia at Rue de la Republique, Mahdia 5100. This top-rated destination is a must-visit for Cafe lovers. Rated 5.0, it's open from 7 am to midnight, 7 days a week. To get there, use GPS coordinates (35.5029868, 11.0660113).</t>
+          <t>Caffe sicillia, located at G22Q+GXF Rue de la Republique, Mahdia 5100, is a highly rated (5.0/5) cafe that opens every day from 07:00 to midnight. This establishment's precise coordinates are (35.5029868, 11.0660113) and locals praise it for its welcoming atmosphere and delicious offerings.</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5211,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Cafe AMIGOS located at G352+98P Cafe AMIGOS, Mahdia. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+AMIGOS/data=!4m7!3m6!1s0x130223dc55555555:0x3887e22469247a75!8m2!3d35.5084727!4d11.0508419!16s%2Fg%2F11fzwgyv1g!19sChIJVVVVVdwjAhMRdXokaSTihzg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 655 365.</t>
+          <t>Cafe AMIGOS, located in Mahdia (coordinates: 5.2665963, -59.1499758), is a highly-rated (5.0 stars) cafe that is open from 6:00 AM to midnight every day. It offers a cozy atmosphere and a delicious menu, making it a popular spot for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5314,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated cafe, check out mqh~ shbyly located at Rue Ichbilia, Mahdia 5100. It's a perfect spot for Cafe lovers and is open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.506245284506, 11.051499501579. For more information, visit their website or call them at 99 829 029.</t>
+          <t>mqh ~ shbyly is a 5-star rated cafe located in Mahdia, Tunisia (35.506245284506, 11.051499501579). It opens every day from 7 am to midnight and offers a cozy ambiance for enjoying a cup of coffee or tea.</t>
         </is>
       </c>
     </row>
@@ -5450,7 +5413,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a great cafe experience, check out Cafe chicha located at A proximite de marche central. This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 42.7919653, 13.4285251.</t>
+          <t>**Café chicha** is a café located in Mahdia at the coordinates (42.7919653, 13.4285251). This café is open 24 hours a day and offers a variety of services and amenities. Café chicha has a rating of 5.0 stars out of 1 review and is owned by Cafe chicha (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -5553,9 +5516,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great hotel, check out Iberostar Selection Royal El Mansour located at Avenue Taher Sfar, Route de la Corniche, B.P. 217, El Jem, Mahdia 5150. 
-This top-rated destination is perfect for hotel lovers and offers a range of services to choose from. 
-With a rating of 4.8, it's a must-visit spot. Get more details on their website at https://www.iberostar.com/en/hotels/mahdia/iberostar-royal-el-mansour-thalasso/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3DIBSVOL_EMEA_SEOLOC_GMB_NA_EN_TUN_TUN_MAH_REM_PULL_NA_NA_NA_NA_NA or call them at 73 681 100.</t>
+          <t>Located in Mahdia with coordinates (35.5059436, 11.0359359), Iberostar Selection Royal El Mansour is a 4.8-rated hotel with 6715 reviews on Google. Featuring a wellness center and all-inclusive options, the hotel offers various amenities such as animation, entertainment, thalasso, and various activities like archery, quad biking, and darts. Guests praise the hotel's stunning sea views and exceptional service.</t>
         </is>
       </c>
     </row>
@@ -5662,9 +5623,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Hotel Nour Palace Resort &amp; Thalasso located at B.P. 79, G2PJ+68F Hotel Nour Palace Resort &amp; Thalasso, Zone Touristique Hiboune. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel and Complexe hotelier to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 17.11708902, 102.93950244. For more details, visit their website at http://nourpalace.tn/ or call them at 73 682 500.</t>
+          <t>The Nour Palace is a luxury seaside resort in Mahdia, Tunisia. The resort offers access to the beach, pools, a training green, tennis courts, and a spa. With 4 stars and 1597 reviews, the resort provides a range of amenities, including animation, dining, and leisure activities, making it an ideal choice for travelers looking for a relaxing and enjoyable stay.</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5730,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a luxurious stay, check out Mahdia Palace Thalasso. Located at Mahdia Palace Thalasso, BP 134, Zone Touristique, this is the perfect destination for hotel lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.50441, 11.06619. For more details, visit their website at http://mahdiapalace.tn/ or call them at 73 683 777.</t>
+          <t>Nestled in the coastal haven of Mahdia, Mahdia Palace Thalasso is a luxurious hotel that offers guests a tranquil escape with its beachfront location. Indulge in the pristine sands of the private beach or unwind in the serene ambiance of the spa. Dive into the refreshing waters of the indoor and outdoor pools, or simply soak up the Mediterranean sun.</t>
         </is>
       </c>
     </row>
@@ -5878,9 +5837,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a place to stay, check out Hotel El Mehdi located at Route de la corniche, Mahdia 5100. 
-This top-rated hotel is perfect for relaxation seekers and offers a range of amenities to choose from. 
-With a rating of 4.0, it's a must-visit spot for your next vacation. To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, visit their website at http://www.hotelelmehdi.com/ or call them at 73 671 300.</t>
+          <t>Hotel El Mehdi is a 4-star all-inclusive hotel with 1082 reviews. With its private beach and swimming pools, it is a perfect place to relax and enjoy the sun. The hotel also offers a variety of activities, including animation, massage, and a hammam. It is located in Mahdia, Tunisia, with the coordinates (35.5029868, 11.0660113).</t>
         </is>
       </c>
     </row>
@@ -5987,9 +5944,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated hotel, check out ONE Resort El Mansour located at Route Touristique, B.P. 98, Mahdia. 
-This popular destination is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.02583, -2.43777. For more details, visit their website at http://www.oneelmansour.tn/ or call them at 73 682 696.</t>
+          <t>ONE Resort El Mansour, located in Mahdia, Tunisia (lon: -2.43777, lat: 35.02583), is a stylish hotel offering comfortable accommodations. Guests can enjoy the convenience of two restaurants, a relaxing spa, and a serene garden. The hotel has received 901 reviews and holds an impressive 4.2 rating. Its featured amenities include a swimming pool with waterslides, a private beach, and an entertainment team. ONE Resort El Mansour offers an unforgettable vacation experience with its combination of comfort, convenience, and entertainment.</t>
         </is>
       </c>
     </row>
@@ -6092,7 +6047,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great Hotel, check out Hotel El Borj located at Route de la Corniche, Mahdia 5111. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.540533244716, 11.029370977098. For more details, visit their website at nan or call them at 73 683 700.</t>
+          <t>Located in Mahdia, Hotel El Borj is an all-inclusive resort featuring cozy rooms, a serene ambiance, an outdoor pool, and an on-site restaurant. It offers a relaxing getaway with convenient access to the beachfront.</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6154,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a place to stay, check out Hotel Dar Al Madina located at Bi'allah, Rue El Quaem, Mahdia 5100. This top-rated destination is perfect for Hotel lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, visit their website at http://www.daralmadina.tn/ or call them at 73 656 266.</t>
+          <t>Hotel Dar Al Madina is a basic hotel located in Mahdia, Tunisia (35.5029868, 11.0660113). It offers simple rooms with Wi-Fi, a coffee shop, a pub, and free parking.</t>
         </is>
       </c>
     </row>
@@ -6302,8 +6257,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a highly-rated hostel, check out Dar evelyne located at Dar evelyne, Mahdia. This top-rated destination is perfect for hostel lovers and has a rating of 4.6. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website 
-at http://www.subway-mahdia.com/ or call them at 98 556 542.</t>
+          <t>Nestled in the heart of Mahdia, Dar evelyne is a charming hostel that offers a comfortable and convenient stay for travelers. With its convenient location and picturesque terrace, Dar evelyne is an ideal choice for those looking to explore the city or simply relax and enjoy the views. The hostel features a range of amenities, including comfortable rooms, a welcoming common area, and free WiFi, making it a great place to meet other travelers and make lasting memories.</t>
         </is>
       </c>
     </row>
@@ -6402,7 +6356,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Maison Albatros mahdia located at Av. Cap Africa, Mahdia 5129. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from, including Chambre d'hotes. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.5110214, 11.0528727. For more details, visit their website or call them at 51 878 716.</t>
+          <t>Maison Albatros mahdia is a guest house located in Mahdia, Tunisia (35.5110214, 11.0528727) offering 1900 m² of space. With 23 reviews and a rating of 4.7, it's a popular choice for travelers. The guest house features rooms with views of the sea and is conveniently located near the beach.</t>
         </is>
       </c>
     </row>
@@ -6509,9 +6463,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great meal, check out Laourient located at Laourient, Zone Touristique Ma/Ba Mahdia Mahdia - Bagdhedi, Bekalta 5090. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Complexe d'appartements meubles categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 19:00-00:00. To get there, use these GPS coordinates: 35.617317, 10.9936527. For more details, visit their website at https://www.apartments-tunisia.com/ or call them at 25 681 552.</t>
+          <t>Laourient is a restaurant located in Mahdia, Tunisia, offering a wide variety of cuisines. It is situated on the coordinates (35.617317, 10.9936527), making it easily accessible for locals and tourists alike. The restaurant is known for its cozy ambiance, excellent service, and delicious food, with a 5.0 rating based on 19 reviews.</t>
         </is>
       </c>
     </row>
@@ -6610,9 +6562,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Dar El Hamra MAHDIA located at Av. Cap Africa, Mahdia. 
-This top-rated destination is perfect for Maison d'hotes lovers. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.50759822087, 11.075653074081. For more details, visit their website at https://www.google.com/maps/place/Dar+El+Hamra+MAHDIA/data=!4m10!3m9!1s0x130223c575f19893:0x8da40eeb3f7d1622!5m2!4m1!1i2!8m2!3d35.5079186!4d11.0771508!16s%2Fg%2F11t2lxs3yd!19sChIJk5jxdcUjAhMRIhZ9P-sOpI0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 656 088.</t>
+          <t>Dar El Hamra MAHDIA is a 4.7-rated guest house located in Mahdia, Tunisia. It offers a relaxing and comfortable stay with a range of amenities and services. Situated at the coordinates (35.50759822087, 11.075653074081), the guest house provides easy access to the city's attractions and landmarks.</t>
         </is>
       </c>
     </row>
@@ -6711,11 +6661,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Dar El Hamra | Maison Arabe Typique located at Impasse sidi fredj, rue Sidi Jaber, Mahdia 5129. 
-This top-rated destination is perfect for Maison d'hotes lovers. 
-With a rating of 4.8, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.5110214, 11.0528727. 
-For more details, visit their website at https://www.google.com/maps/place/Dar+El+Hamra+%7C+%D8%AF%D8%A7%D8%B1+%D8%A7%D9%84%D8%AD%D9%85%D8%B1%D8%A7%D8%A1+%7C+Maison+Arabe+Typique%E2%80%AD/data=!4m10!3m9!1s0x130225c069821573:0xe53d9b8151f33ab1!5m2!4m1!1i2!8m2!3d35.5069819!4d11.0763962!16s%2Fg%2F11hfr4yl2m!19sChIJcxWCacAlAhMRsTrzUYGbPeU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 769 199.</t>
+          <t>Dar El Hamra, a charming traditional Arabic house located in Mahdia, invites guests to experience its warm hospitality. Nestled at the heart of the city (35.5110214, 11.0528727), Dar El Hamra offers a unique and immersive stay in the heart of Tunisian culture. With a 4.8-star rating based on 4 reviews, this guesthouse is highly acclaimed for its authentic ambiance, making it an ideal choice for travelers seeking a genuine local experience.</t>
         </is>
       </c>
     </row>
@@ -6810,7 +6756,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in mahdia, check out Borj errass located at G34G+G2H Borj errass, rue Sidi Jaber, Mahdia. This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes to choose from. With a rating of 4.7, it's a must-visit spot. To get there, you can use the following coordinates: 35.5033467, 11.0683046.</t>
+          <t>Borj errass is a guest house located in Mahdia, Tunisia. It offers a 4.7-star rating on Google Maps, with 3 reviews. The guest house is located at the coordinates (35.5033467, 11.0683046) and can be found on Google Maps at the following link: https://www.google.com/maps/place/Borj+errass/data=!4m10!3m9!1s0x130225e2e0511a4f:0x11a41075a8111873!5m2!4m1!1i2!8m2!3d35.5063192!4d11.0750939!16s%2Fg%2F11kpmb0wfz!19sChIJTxpR4OIlAhMRcxgRqHUQpBE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6855,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a top-rated hotel, check out Aktivaparthotel Laourient With Restaurant, and Possibility for Half Board located at Aktivaparthotel Laourient With Restaurant, and Possibility for Half Board, 5100 Zone Turistique Mahdia, 5100 Mahdia Mahdia, Governorate 5100. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, visit their website at https://www.google.com/maps/place/Aktivaparthotel+Laourient+With+Restaurant,+and+Possibility+for+Half+Board/data=!4m10!3m9!1s0x13022302a4010e61:0xef2078dac958e3ba!5m2!4m1!1i2!8m2!3d35.549202!4d11.026294!16s%2Fg%2F11jsr3z73w!19sChIJYQ4BpAIjAhMRuuNYydp4IO8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at +45 36 95 01 11.</t>
+          <t>Aktivaparthotel Laourient is a 5-star hotel located in Mahdia, Tunisia. It offers a restaurant, half-board possibilities, and a variety of amenities. The hotel is situated near the beach and offers stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -7008,7 +6954,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated hotel, check out One Resort El Mansour located at G22W+X7H One Resort El Mansour, Mahdia 5150. This 5-star hotel is perfect for vacationers and offers a range of amenities to choose from. It's open during these hours: 24 hours a day. To get there, use these GPS coordinates: 35.5059436, 11.0359359. For more details, visit their website at https://www.google.com/maps/place/One+Resort+El+Mansour/data=!4m10!3m9!1s0x130223dc55555553:0x20a442e1f79166a2!5m2!4m1!1i2!8m2!3d35.5024473!4d11.0457327!16s%2Fg%2F11s_m01yn4!19sChIJU1VVVdwjAhMRomaR9-FCpCA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 337 864 ext. 0.</t>
+          <t>One Resort El Mansour is a five-star hotel, located in Mahdia, Tunisia. It features 1911 rooms and offers a range of amenities, including a swimming pool, a spa, and a fitness center. The hotel is situated on the beachfront, providing guests with stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -7103,9 +7049,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great hotel, check out phenix de mahdia located at G353+9R5 phenix de mahdia, Av. Habib Bourgiba, Mahdia. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website at https://www.google.com/maps/place/phenix+de+mahdia/data=!4m10!3m9!1s0x13022324c454ef51:0x8dd79849028d5275!5m2!4m1!1i2!8m2!3d35.5083896!4d11.0546212!16s%2Fg%2F11krp_sncb!19sChIJUe9UxCQjAhMRdVKNAkmY140?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Discover the charming phenix de mahdia, conveniently located at the coordinates (35.5033467, 11.0683046) in the heart of mahdia. This highly-rated (4.5/5) hotel is the perfect choice for travelers seeking a comfortable and memorable stay. With its convenient location on Av. Habib Bourgiba, guests have easy access to the city's main attractions.</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7148,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a cozy place to stay, consider Dar Set El Kol at 222 Av. Habib Bourgiba. This top-rated Chambre d'hotes offers a comfortable and charming experience. With a rating of 5.0, it's a highly recommended spot. You can contact them at 55 863 400 for more details.</t>
+          <t>**Dar Set El Kol** is a guest house located in Mahdia, Tunisia, near the beach. It offers a 5-star rating and features include cozy rooms, air conditioning, and a beautiful setting. Its convenient location makes it easy to access the city's attractions and enjoy the local culture.</t>
         </is>
       </c>
     </row>
@@ -7299,7 +7243,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated Hebergement d'interieur, check out Dar Shems located at G34H+72J Dar Shems, Dar Shems. Rue Hassan Boussofara, Mahdia 5100. With a rating of 5.0, it's a must-visit spot. It's open 24/7. For more details, visit their website at https://www.google.com/maps/place/Dar+Shems/data=!4m10!3m9!1s0x1302240ecf89410b:0x1d459d3fb0f8dcd8!5m2!4m1!1i2!8m2!3d35.505703!4d11.077523!16s%2Fg%2F11b73p9ll7!19sChIJC0GJzw4kAhMR2Nz4sD-dRR0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Dar Shems is a 5-star guesthouse located in Mahdia, Tunisia. It offers a variety of amenities, including a rooftop terrace, a swimming pool, and a spa. The guesthouse is located in the heart of the city, close to the beach and the old town.</t>
         </is>
       </c>
     </row>
@@ -7394,7 +7338,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated hotel, check out Phenix located at 9WGP+JJJ Phenix, Av. Habib Bourguiba, Mahdia. This highly-rated hotel is perfect for those seeking a comfortable and convenient stay. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Phenix/data=!4m10!3m9!1s0x1301f51c79fd5baf:0x6e26635ca1e7cfda!5m2!4m1!1i2!8m2!3d35.3765903!4d10.9365169!16s%2Fg%2F11krp_r8009!19sChIJr1v9eRz1ARMR2s_noVxjJm4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Phenix is a 5-star hotel in Mahdia, Tunisia. It offers a variety of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -7501,9 +7445,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a perfect Hotel, check out Hotel Nour Palace Resort &amp; Thalasso located at B.P. 79, G2PJ+68F Hotel Nour Palace Resort &amp; Thalasso, Zone Touristique Hiboune, Mahdia 5111. 
-This top-rated Hotel is perfect for Hotel lovers and offers a range of Complexe hotelier to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 17.11708902, 102.93950244. For more details, visit their website at http://nourpalace.tn/ or call them at 73 682 500.</t>
+          <t>The Hotel Nour Palace Resort &amp; Thalasso is a 4-star hotel located in Mahdia, Tunisia. It is a luxury beachfront resort with access to the beach, swimming pools, a golf practice green, tennis courts, and a spa. The hotel has 1597 reviews on Google and is rated 4.0 out of 5. It is located at B.P. 79, G2PJ+68F Hotel Nour Palace Resort &amp; Thalasso, Zone Touristique Hiboune, Mahdia 5111. The hotel's phone number is 73 682 500.</t>
         </is>
       </c>
     </row>
@@ -7610,8 +7552,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a place to stay, consider Hotel El Mehdi located at Route de la corniche, Mahdia 5100. This top-rated hotel is perfect for hotel lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, visit their website at 
-http://www.hotelelmehdi.com/ or call them at 73 671 300.</t>
+          <t>A 4-star beachfront hotel with an all-inclusive package, Hotel El Mehdi is located in Mahdia, Tunisia (35.5029868, 11.0660113). It features comfortable rooms, multiple restaurants, entertainment activities, swimming pools, a spa with massage services, and a private beach. This family-friendly resort offers a wide range of amenities for a relaxing and enjoyable stay, including a kids' club and a playground.</t>
         </is>
       </c>
     </row>
@@ -7710,10 +7651,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in Mahdia looking for a fantastic Chambre d'hotes, check out Dar Set El Kol located at 222 Av. Habib Bourgiba. 
-This top-rated destination offers a range of categories including Chambre d'hotes and has a rating of 5.0.
-For more details, visit their website at https://www.google.com/maps/place/Dar+Set+El+Kol/data=!4m10!3m9!1s0x130223adcd53a051:0x9a6c0970df5239cf!5m2!4m1!1i2!8m2!3d35.5063144!4d11.0587474!16s%2Fg%2F11rwrz7gv3!19sChIJUaBTza0jAhMRzzlS33AJbJo?authuser=0&amp;hl=fr&amp;rclk=1
- or call them at 55 863 400.</t>
+          <t>Dar Set El Kol is a guest house located in Mahdia, Tunisia. It has a 5.0 rating and offers a variety of amenities, including a restaurant, bar, and garden. The guest house is located near the beach and offers stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -7820,9 +7758,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a place to stay, check out Hotel Nour Palace Resort &amp; Thalasso, located at B.P. 79, G2PJ+68F Hotel Nour Palace Resort &amp; Thalasso, Zone Touristique Hiboune, Mahdia 5111. 
-This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from, including hotel and complexe hotelier. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.5366718, 11.031056. For more details, visit their website at http://nourpalace.tn/ or call them at 73 682 500.</t>
+          <t>The Hotel Nour Palace Resort &amp; Thalasso is a luxury resort that offers a wide range of amenities for its guests. These include access to a private beach, several swimming pools, a golf course, tennis courts, and a spa. The hotel is located in the town of Mahdia in Tunisia, on the Mediterranean Sea coast.</t>
         </is>
       </c>
     </row>
@@ -7929,10 +7865,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great place to stay, check out Hotel El Mehdi located at Route de la corniche, Mahdia 5100. 
-This top-rated destination is perfect for hotel lovers and offers a range of hotel and resort options to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.5029868, 11.0660113. 
-For more details, visit their website at http://www.hotelelmehdi.com/ or call them at 73 671 300.</t>
+          <t>Hotel El Mehdi is a 4-star all-inclusive hotel located in Mahdia, Tunisia. It offers a relaxed atmosphere with simple rooms, restaurants, entertainment, and swimming pools. The hotel is near the sea and is known for its animation, water slides, and all-inclusive packages. It also offers amenities such as massage, a hammam, a baby crib, and a cafeteria.</t>
         </is>
       </c>
     </row>
@@ -8039,9 +7972,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a place to stay, check out ONE Resort El Mansour located at Route Touristique. 
-This top-rated hotel is perfect for those seeking comfort and offers a range of amenities to choose from. 
-With a rating of 4.2 and 901 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 35.02583, -2.43777. For more details, visit their website at http://www.oneelmansour.tn/ or call them at 73 682 696.</t>
+          <t>ONE Resort El Mansour is a laid-back hotel with functional accommodations, two restaurants, a spa, and a garden in Mahdia, Tunisia. It's located at coordinates (35.02583, -2.43777).</t>
         </is>
       </c>
     </row>
@@ -8144,11 +8075,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a place to stay, check out Dar evelyne located at Dar evelyne, Mahdia. 
-This top-rated destination is perfect for Hostel lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 
-5.2665963, -59.1499758. For more details, visit their website at http://www.subway-mahdia.com/ 
-or call them at 98 556 542.</t>
+          <t>Dar evelyne is a hostel located in Mahdia, Tunisia. It is a 4.6-star rated property that features a terrace. The hostel offers a variety of services and amenities, including free Wi-Fi, a shared kitchen, a garden, and laundry facilities. Dar evelyne is situated in the heart of Mahdia, making it an ideal base for exploring the city's many attractions.</t>
         </is>
       </c>
     </row>
@@ -8255,7 +8182,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for great food, check out Laourient located at Laourient, Zone Touristique Ma/Ba Mahdia Mahdia - Bagdhedi, Bekalta 5090. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Complexe d'appartements meubles to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 19:00-00:00. To get there, use these GPS coordinates: 35.617317, 10.9936527. For more details, visit their website at https://www.apartments-tunisia.com/ or call them at 25 681 552.</t>
+          <t>Laourient is a 5-star rated restaurant located in Bekalta, Mahdia, Tunisia. It is known for its excellent service and delicious food. The restaurant offers a variety of dishes, including traditional Tunisian cuisine and international fare. Laourient is also a popular spot for tourists, as it offers beautiful views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -8354,7 +8281,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated Chambre d'hotes, check out Dar Set El Kol located at Dar Set El Kol, 222 Av. Habib Bourgiba, Mahdia. With a rating of 5.0, it's a must-visit spot. It's open during these hours: not specified. To get there, use these GPS coordinates: 35.504587784163, 11.065320856081. For more details, visit their website at https://www.google.com/maps/place/Dar+Set+El+Kol/data=!4m10!3m9!1s0x130223adcd53a051:0x9a6c0970df5239cf!5m2!4m1!1i2!8m2!3d35.5063144!4d11.0587474!16s%2Fg%2F11rwrz7gv3!19sChIJUaBTza0jAhMRzzlS33AJbJo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 863 400.</t>
+          <t>Dar Set El Kol is a guest house located in Mahdia, Tunisia. It has a rating of 5.0 and is located at 222 Av. Habib Bourgiba.</t>
         </is>
       </c>
     </row>
@@ -8449,7 +8376,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated hotel, check out Phenix located at 9WGP+JJJ Phenix, Av. Habib Bourguiba, Mahdia. With a rating of 5.0, it's a must-visit spot for Hotel lovers. For more details, visit their website or call them for information.</t>
+          <t>In the heart of Mahdia, Phenix, a top-rated hotel with a 5.0 rating, welcomes you with exceptional hospitality. Immerse yourself in the vibrant atmosphere of the city centre, just steps away from the renowned Avenue Habib Bourguiba. Enjoy convenient access to local attractions and amenities, making Phenix the perfect base for exploring the wonders of Mahdia. Its prime location at the coordinates (35.504588, 11.065321) offers panoramic views and effortless accessibility. While additional details about the hotel's facilities and services are limited, we highly recommend booking your stay at Phenix to experience the warmth and comfort it has to offer.</t>
         </is>
       </c>
     </row>
@@ -8552,10 +8479,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated hotel, check out Iberostar Selection Royal El Mansour located at Avenue Taher Sfar, Route de la Corniche, B.P. 217, El Jem, Mahdia 5150. 
-This hotel is perfect for hotel lovers and offers a range of hotel bien-etre to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.5059436, 11.0359359. For more details, visit their website 
-at https://www.iberostar.com/en/hotels/mahdia/iberostar-royal-el-mansour-thalasso/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3DIBSVOL_EMEA_SEOLOC_GMB_NA_EN_TUN_TUN_MAH_REM_PULL_NA_NA_NA_NA_NA or call them at 73 681 100.</t>
+          <t>Immerse yourself in the allure of the Iberostar Selection Royal El Mansour, a captivating hotel nestled amidst the serene shores of Mahdia. Boasting a prime location with unobstructed sea views, this 4.8-star sanctuary offers an array of activities and amenities to make your stay truly unforgettable. Dive into the vibrant atmosphere of the animation team, indulge in rejuvenating thalassotherapy treatments, or embark on exciting excursions like quad biking and archery. With its impeccable service and countless entertainment options, Iberostar Selection Royal El Mansour promises an idyllic escape where memories are made.</t>
         </is>
       </c>
     </row>
@@ -8662,11 +8586,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Hotel Nour Palace Resort &amp; Thalasso located at B.P. 79, G2PJ+68F Hotel Nour Palace Resort &amp; Thalasso, Zone Touristique Hiboune, Mahdia 5111. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel, Complexe hotelier to choose from. 
-With a rating of 4.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 17.11708902, 102.93950244. For more details, visit their website 
-at http://nourpalace.tn/ or call them at 73 682 500.</t>
+          <t>The Hotel Nour Palace Resort &amp; Thalasso is a luxury beachfront complex located in Mahdia, Tunisia. It features a private beach, swimming pools, a golf course, tennis courts and a spa. The hotel has received over 1500 reviews, with an average rating of 4.0.</t>
         </is>
       </c>
     </row>
@@ -8773,7 +8693,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a luxurious stay, check out Mahdia Palace Thalasso located at Mahdia Palace Thalasso, BP 134, Zone Touristique. This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.50441, 11.06619. For more details, visit their website at http://mahdiapalace.tn/ or call them at 73 683 777.</t>
+          <t>This beachfront hotel is cozy and offers a range of amenities, including a thalasso spa, a private beach, indoor and outdoor pools, and a selection of food and drink options. Reviews mention its convenient location in Mahdia on the Mediterranean coast.</t>
         </is>
       </c>
     </row>
@@ -8880,7 +8800,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great hotel, check out Hotel El Mehdi located at Route de la corniche, Mahdia 5100. This top-rated destination is perfect for hotel lovers and offers a range of hotel and complexe hotelier to choose from. With a rating of 4.0, it's a must-visit spot in mahdia. For more details, visit their website at http://www.hotelelmehdi.com/ or call them at 73 671 300.</t>
+          <t>Hotel El Mehdi is located in Mahdia, Tunisia and offers a comfortable stay with its all-inclusive services and facilities. It is a popular choice for beach vacations offering a range of activities such as animation, toboggans and massage services. The hotel is situated at the coordinates (35.5029868, 11.0660113) and is easily accessible.</t>
         </is>
       </c>
     </row>
@@ -8987,7 +8907,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a relaxing getaway, check out ONE Resort El Mansour located at Route Touristique, B.P. 98, Mahdia. This top-rated resort is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.02583, -2.43777. For more details, visit their website at http://www.oneelmansour.tn/ or call them at 73 682 696.</t>
+          <t>ONE Resort El Mansour is a laid-back hotel in Mahdia, Tunisia, with functional accommodations, two restaurants, a spa, and a garden. It has received 901 reviews and is rated 4.2 stars. The hotel is located at (35.02583, -2.43777).</t>
         </is>
       </c>
     </row>
@@ -9090,9 +9010,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a relaxing stay, check out Hotel El Borj located at Route de la Corniche, Mahdia 5111. 
-This top-rated destination is perfect for Hotel lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.540533244716, 11.029370977098. For more details, visit their website at https://www.google.com/maps/place/H%C3%B4tel+El+Borj/data=!4m10!3m9!1s0x130223ba8b7434bf:0x39d5036e5e3dd3ec!5m2!4m1!1i2!8m2!3d35.5181265!4d11.0434036!16s%2Fg%2F1tf83q29!19sChIJvzR0i7ojAhMR7NM9Xm4D1Tk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 683 700.</t>
+          <t>Hotel El Borj is a relaxing all-inclusive resort located in Mahdia, Tunisia. It features cozy rooms, an outdoor pool, and a restaurant. The hotel is renowned for its animation and proximity to the sea. With 496 reviews and a 4.0 rating, it's a popular destination for tourists seeking a memorable vacation.</t>
         </is>
       </c>
     </row>
@@ -9199,7 +9117,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a place to stay, check out Hotel Dar Al Madina located at Bi'allah, Rue El Quaem, Mahdia 5100. This top-rated destination is perfect for Hotel lovers and has a rating of 4.5. To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, visit their website at http://www.daralmadina.tn/ or call them at 73 656 266.</t>
+          <t>Hotel Dar Al Madina is a 4.5-star hotel located in Mahdia, Tunisia. It offers simple rooms with Wi-Fi, a cafe, a pub, and free parking. The hotel is conveniently located near the city center and the beach, making it a great choice for both business and leisure travelers.</t>
         </is>
       </c>
     </row>
@@ -9302,10 +9220,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated Hostel, check out Dar evelyne located at Dar evelyne, Mahdia. 
-This popular destination offers a range of Hostel options to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website 
-at http://www.subway-mahdia.com/ or call them at 98 556 542.</t>
+          <t>Dar Evelyne is a hostel located in Mahdia, on the northeastern coast of Tunisia, with coordinates (5.2665963, -59.1499758). The hostel has a rating of 4.6 based on 30 reviews. It has a terrace and is a popular destination for tourists.</t>
         </is>
       </c>
     </row>
@@ -9404,9 +9319,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Maison Albatros mahdia located at Av. Cap Africa, Mahdia 5129.
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from.
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.5110214, 11.0528727. For more details, visit their website or call them at 51 878 716.</t>
+          <t>Maison Albatros mahdia is a Maison d'hotes located in mahdia. It has an average rating of 4.7 based on 23 reviews. The place is popular for its proximity to the sea, which is mentioned in 3 of the reviews. You can contact Maison Albatros mahdia by calling 51 878 716.</t>
         </is>
       </c>
     </row>
@@ -9513,9 +9426,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great restaurant, check out Laourient located at Zone Touristique Ma/Ba Mahdia Mahdia - Bagdhedi, Bekalta 5090. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 19:00-00:00, but closed on . To get there, use these GPS coordinates: 35.617317, 10.9936527. For more details, visit their website at https://www.apartments-tunisia.com/ or call them at 25 681 552.</t>
+          <t>Laourient is a restaurant located in Mahdia, Tunisia. It offers a variety of dishes from the region, as well as a selection of wines and beers. The restaurant is located on the beach, and offers beautiful views of the Mediterranean Sea. Laourient is also a popular spot for events and parties, making it a great place to visit for both locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -9614,7 +9525,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in mahdia, check out Dar El Hamra MAHDIA, located at Av. Cap Africa, Mahdia. This top-rated Maison d'hotes is perfect for Maison d'hotes lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.50759822087, 11.075653074081. For more details, call them at 22 656 088.</t>
+          <t>Dar El Hamra is a **guesthouse** located in Mahdia (Tunisia) at the coordinates (35.50759822087, 11.075653074081). It has a rating of 4.7 out of 5 based on 9 reviews and offers a variety of services and amenities. The guesthouse is located on Av. Cap Africa in Mahdia.</t>
         </is>
       </c>
     </row>
@@ -9713,7 +9624,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated Maison d'hotes, check out Dar El Hamra | dr lHmr | Maison Arabe Typique located at Impasse sidi fredj, rue Sidi Jaber, Mahdia 5129. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.5110214, 11.0528727. For more details, visit their website or call them at 22 769 199.</t>
+          <t>The Dar El Hamra is a typical Arab house located in Mahdia, Tunisia. It is a guest house with a rating of 4.8 out of 5, based on 4 reviews. The house is located at the address Impasse sidi fredj, rue Sidi Jaber, Mahdia 5129. It is open 24 hours a day, 7 days a week. The Dar El Hamra is a popular tourist destination, as it offers a unique and authentic Tunisian experience.</t>
         </is>
       </c>
     </row>
@@ -9808,7 +9719,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a delightful place to stay, consider Borj errass located at G34G+G2H Borj errass, rue Sidi Jaber, Mahdia. This top-rated destination is perfect for Chambre d'hotes lovers and has a rating of 4.7. To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website at https://www.google.com/maps/place/Borj+errass/data=!4m10!3m9!1s0x130225e2e0511a4f:0x11a41075a8111873!5m2!4m1!1i2!8m2!3d35.5063192!4d11.0750939!16s%2Fg%2F11kpmb0wfz!19sChIJTxpR4OIlAhMRcxgRqHUQpBE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Borj errass is a guest house located in Mahdia, Tunisia. It offers a 4.7-star rating and is categorized as a guest house. The guest house is situated at the coordinates (35.5033467, 11.0683046).</t>
         </is>
       </c>
     </row>
@@ -9903,9 +9814,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great place to stay, check out phenix de mahdia located at G353+9R5 phenix de mahdia, Av. Habib Bourgiba. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website at https://www.google.com/maps/place/phenix+de+mahdia/data=!4m10!3m9!1s0x13022324c454ef51:0x8dd79849028d5275!5m2!4m1!1i2!8m2!3d35.5083896!4d11.0546212!16s%2Fg%2F11krp_sncb!19sChIJUe9UxCQjAhMRdVKNAkmY140?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Phenix de Mahdia is a 4.5-star hotel located in Mahdia, Tunisia, at the coordinates (35.5033467, 11.0683046). Reviews for the hotel are positive, but no further information is available about its offerings or amenities.</t>
         </is>
       </c>
     </row>
@@ -10004,7 +9913,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a luxurious getaway, check out One Resort El Mansour, located at G22W+X7H, One Resort El Mansour, Mahdia 5150. This top-rated destination is perfect for Hotel lovers and offers a range of amenities to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: To get there, use these GPS coordinates: 35.5059436, 11.0359359. For more details, visit their website at or call them at 24 337 864 ext. 0.</t>
+          <t>One Resort El Mansour is a luxury 5-star hotel situated in Mahdia, Tunisia. It boasts stunning views of the Mediterranean Sea and offers upscale amenities such as an outdoor pool, fitness center, and elegant dining options. The hotel is conveniently located near many local attractions, making it the perfect choice for both business and leisure travelers. With an average rating of 4.9 out of 5, One Resort El Mansour has earned the reputation of providing exceptional service and exquisite accommodations.</t>
         </is>
       </c>
     </row>
@@ -10103,7 +10012,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a place to stay, check out the Aktivaparthotel Laourient With Restaurant, and Possibility for Half Board located at Aktivaparthotel Laourient With Restaurant, and Possibility for Half Board, 5100 Zone Turistique Mahdia, 5100 Mahdia Mahdia, Governorate 5100. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, call them at +45 36 95 01 11.</t>
+          <t>Aktivaparthotel Laourient is a 3-star hotel located in mahdia, Tunisia. It offers a restaurant with half board options. The hotel is highly rated for its cleanliness, comfort and friendly staff. It is located near the beach and offers a variety of amenities, including a pool, fitness center and free Wi-Fi.</t>
         </is>
       </c>
     </row>
@@ -10202,9 +10111,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a comfortable stay, check out Dar Set El Kol located at 222 Av. Habib Bourgiba. 
-This top-rated B&amp;B is perfect for relaxation and offers a great experience. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.504587784163, 11.065320856081. For more details, visit their website at https://www.google.com/maps/place/Dar+Set+El+Kol/data=!4m10!3m9!1s0x130223adcd53a051:0x9a6c0970df5239cf!5m2!4m1!1i2!8m2!3d35.5063144!4d11.0587474!16s%2Fg%2F11rwrz7gv3!19sChIJUaBTza0jAhMRzzlS33AJbJo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 863 400.</t>
+          <t>Dar Set El Kol is a guesthouse located in Mahdia, Tunisia, at the coordinates (35.504587784163, 11.065320856081). It is situated on 222 Av. Habib Bourgiba. The guesthouse has a rating of 5.0 based on 2 reviews but does not have a website. It is owned by 'Dar Set El Kol (proprietaire)' and is categorized as a Chambre d'hotes (guesthouse). Dar Set El Kol can be contacted at +55 863 400.</t>
         </is>
       </c>
     </row>
@@ -10299,9 +10206,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great indoor accommodation, check out Dar Shems located at G34H+72J Dar Shems, Dar Shems. Rue Hassan Boussofara, Mahdia 5100. 
-This top-rated destination is perfect for indoor accommodation lovers and offers a range of indoor accommodation to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, visit their website at link or call them at phone.</t>
+          <t>"Dar Shems" is a vacation rental with a rating of 5, located in Mahdia at (35.5029868, 11.0660113).</t>
         </is>
       </c>
     </row>
@@ -10404,7 +10309,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a luxurious stay, check out Iberostar Selection Royal El Mansour located at Avenue Taher Sfar, Route de la Corniche, B.P. 217, El Jem. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel bien-etre to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.5059436, 11.0359359. For more details, visit their website at https://www.iberostar.com/en/hotels/mahdia/iberostar-royal-el-mansour-thalasso/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3DIBSVOL_EMEA_SEOLOC_GMB_NA_EN_TUN_TUN_MAH_REM_PULL_NA_NA_NA_NA_NA or call them at 73 681 100.</t>
+          <t>The Iberostar Selection Royal El Mansour is a luxurious hotel located in Mahdia, Tunisia, facing the Mediterranean Sea. The hotel offers a wide range of amenities, including a private beach, a thalassotherapy center, and several swimming pools. The hotel is also surrounded by lush gardens and has a beautiful outdoor terrace. The hotel's rooms are spacious and well-equipped, and many of them offer stunning views of the sea. The hotel's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that guests have a memorable stay. The hotel is located just a short walk from the city center, where guests can find a variety of shops, restaurants, and bars. The hotel is also a great base for exploring the surrounding area, which includes the historic city of Kairouan and the beautiful beaches of the Cap Bon peninsula.</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10416,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for somewhere to stay, check out Hotel Nour Palace Resort &amp; Thalasso located at B.P. 79, G2PJ+68F Hotel Nour Palace Resort &amp; Thalasso, Zone Touristique Hiboune, Mahdia 5111. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel and Complexe hotelier to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 17.11708902, 102.93950244. For more details, visit their website at http://nourpalace.tn/ or call them at 73 682 500.</t>
+          <t>The Hotel Nour Palace Resort &amp; Thalasso is a high-end beachfront complex located in Mahdia (Tunisia). It offers direct access to the beach, several swimming pools, a green training area, tennis courts, and a luxurious spa. The resort features a wide range of amenities, including 1597 guest rooms, restaurants, bars, a fitness center, and a kids' club. It's conveniently located at B.P. 79, G2PJ+68F Hotel Nour Palace Resort &amp; Thalasso, Zone Touristique Hiboune, Mahdia 5111.</t>
         </is>
       </c>
     </row>
@@ -10618,9 +10523,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-notch hotel experience, check out Mahdia Palace Thalasso located at BP 134, Zone Touristique. 
-This popular destination is perfect for hotel lovers and offers a range of amenities to choose from. 
-With a 4.2 stars rating, it's a must-visit spot. To get there, use these GPS coordinates: 35.50441, 11.06619. For more details, visit their website at http://mahdiapalace.tn/ or call them at 73 683 777.</t>
+          <t>Mahdia Palace Thalasso is a luxury hotel located in Mahdia, Tunisia. It offers comfortable accommodations, a spa, a private beach, as well as indoor and outdoor swimming pools. With an impressive 4.2-star rating based on over 1500 reviews, this upscale hotel is a popular destination for leisure travelers. Situated at coordinates (35.50441, 11.06619), the hotel is easily accessible for those seeking a luxurious getaway on the Mediterranean coast.</t>
         </is>
       </c>
     </row>
@@ -10727,7 +10630,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a place to stay, Hotel El Mehdi is worth checking out. Located at Route de la corniche, Mahdia 5100, this top-rated hotel is perfect for those looking for a relaxing getaway. It offers a range of amenities to make your stay comfortable, including restaurants, entertainment, and swimming pools. With a rating of 4.0, based on over 1082 reviews, it's a highly recommended spot. For more details, visit their website at http://www.hotelelmehdi.com/ or call them at 73 671 300.</t>
+          <t>Hotel El Mehdi is a 4-star all-inclusive beach resort located in Mahdia, Tunisia. It offers a relaxed atmosphere with simple rooms, multiple restaurants, entertainment, and swimming pools. The hotel is situated on the Mediterranean Sea and has its own private beach. It is a popular destination for families and couples looking for a relaxing and fun-filled vacation. The hotel offers a variety of activities, including swimming, sunbathing, playing tennis, or volleyball, and enjoying the entertainment provided by the animation team.</t>
         </is>
       </c>
     </row>
@@ -10834,8 +10737,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a place to stay, check out ONE Resort El Mansour located at ONE Resort El Mansour, Route Touristique, B.P. 98, Mahdia. 
-This top-rated destination is perfect for Hotel lovers and has a rating of 4.2. To get there, use these GPS coordinates: 35.02583, -2.43777. For more details, visit their website at http://www.oneelmansour.tn/ or call them at 73 682 696.</t>
+          <t>ONE Resort El Mansour is a 4-star hotel located in Mahdia, Tunisia. It offers functional accommodation in a relaxed hotel style with 2 restaurants, a spa and a garden. The hotel is situated on the beachfront and offers stunning views of the Mediterranean Sea. ONE Resort El Mansour is a great choice for families and couples looking for a relaxing beach holiday.</t>
         </is>
       </c>
     </row>
@@ -10938,7 +10840,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you find yourself in mahdia and seeking a relaxing getaway, look no further than Hotel El Borj, nestled along Route de la Corniche. This 4.0-rated haven is a perfect retreat for those seeking a comfortable stay. Boasting a wide range of amenities, the hotel offers a memorable experience for its guests. To inquire further, you can reach out to them via phone at 73 683 700 or visit their website for more details.</t>
+          <t>Hotel El Borj is a 4-star all-inclusive beachfront resort with 496 reviews. It offers a relaxed atmosphere, comfortable rooms, an outdoor pool, a restaurant, and various activities for entertainment, including animation and cocktails. The hotel is located in Mahdia, Tunisia, and offers easy access to the beach and the city's attractions.</t>
         </is>
       </c>
     </row>
@@ -11045,7 +10947,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a comfortable stay, check out Hotel Dar Al Madina located at Hotel Dar Al Madina, Bi'allah, Rue El Quaem, Mahdia 5100. This top-rated destination is perfect for Hotel lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, visit their website at http://www.daralmadina.tn/ or call them at 73 656 266.</t>
+          <t>Hotel Dar Al Madina is a simple hotel located in mahdia. It offers simple rooms with Wi-Fi and a flat-screen TV. The hotel also has a cafe, a pub, and free parking. It is located at (35.5029868, 11.0660113).</t>
         </is>
       </c>
     </row>
@@ -11148,9 +11050,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a comfy place to stay, check out Dar evelyne located at Dar evelyne, Mahdia. 
-This top-rated destination is perfect for Hostel lovers and offers a range of Hostel categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at http://www.subway-mahdia.com/ or call them at 98 556 542.</t>
+          <t>Dar Evelyne is a 4.6-rated hostel located in Mahdia, on the coordinates (5.2665963, -59.1499758). It has a terrace and 30 reviews, with an average rating of 4.6.</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11149,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a cozy place to stay, check out Maison Albatros mahdia, located at Av. Cap Africa, Mahdia 5129. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from, including Maison d'hotes and Chambre d'hotes. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.5110214, 11.0528727. For more details, call them at 51 878 716.</t>
+          <t>Maison Albatros mahdia is a guesthouse located at Av. Cap Africa, Mahdia 5129, Tunisia. It offers room and board, with a focus on the nearby sea. The guesthouse has a 4.7 rating based on 23 reviews. It is owned by Maison Albatros mahdia (proprietaire) and can be contacted at 51 878 716.</t>
         </is>
       </c>
     </row>
@@ -11348,7 +11248,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Dar El Hamra MAHDIA located at Av. Cap Africa, Mahdia. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.50759822087, 11.075653074081. For more details, call them at 22 656 088.</t>
+          <t>Dar El Hamra MAHDIA is a highly-rated guesthouse located in Mahdia, Tunisia, with a rating of 4.7 out of 5 based on 9 reviews. It offers various amenities including a stunning location on Av. Cap Africa, comfortable accommodations, and friendly service. The guesthouse provides guests with a comfortable and memorable stay in Mahdia, making it an ideal destination for travelers seeking relaxation and exploration.</t>
         </is>
       </c>
     </row>
@@ -11447,7 +11347,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a top-rated Maison D'hotes experience, check out Dar El Hamra | dr lHmr located at Impasse sidi fredj, rue Sidi Jaber, Mahdia 5129. This highly-rated destination offers a cozy and authentic stay in a traditional Arab house. With a rating of 4.8 and 4 reviews, it's a must-visit spot for those seeking a unique accommodation. To get there, you can use these GPS coordinates: 35.5110214, 11.0528727. For more details, visit their website or call them at 22 769 199.</t>
+          <t>Dar El Hamra is a 4.8-star rated Maison d'hotes located in Mahdia, Tunisia. It offers a typical Arabic house experience with a rich history and beautiful architecture. The guesthouse has a convenient location in the heart of the city, making it easy for guests to explore the surrounding area.</t>
         </is>
       </c>
     </row>
@@ -11542,7 +11442,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated Chambre d'hotes, check out Borj errass located at G34G+G2H Borj errass, rue Sidi Jaber, Mahdia. This destination is perfect for Chambre d'hotes lovers and offers a highly rated experience with a rating of 4.7. To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website or call them at .</t>
+          <t>Borj errass is a guesthouse located in the heart of Mahdia, Tunisia. It offers a unique and authentic experience, with its traditional architecture and warm hospitality. The guesthouse is situated in a quiet area, just a few steps away from the beach and the city center. It features comfortable rooms with private bathrooms, a shared kitchen, and a beautiful terrace with panoramic views of the city.</t>
         </is>
       </c>
     </row>
@@ -11637,9 +11537,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great hotel, check out phenix de mahdia located at G353+9R5 phenix de mahdia, Av. Habib Bourgiba, Mahdia. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website at https://www.google.com/maps/place/phenix+de+mahdia/data=!4m10!3m9!1s0x13022324c454ef51:0x8dd79849028d5275!5m2!4m1!1i2!8m2!3d35.5083896!4d11.0546212!16s%2Fg%2F11krp_sncb!19sChIJUe9UxCQjAhMRdVKNAkmY140?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Phenix de Mahdia is a well-rated hotel (average 4.5 out of 5) located in Mahdia, Tunisia. Unfortunately, there's no detailed description about the hotel available. Would you like to know more?</t>
         </is>
       </c>
     </row>
@@ -11738,7 +11636,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great hotel, check out One Resort El Mansour located at G22W+X7H One Resort El Mansour, Mahdia 5150. This top-rated destination is perfect for hotel lovers and offers a range of hotel categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.5059436, 11.0359359. For more details, visit their website at https://www.google.com/maps/place/One+Resort+El+Mansour/data=!4m10!3m9!1s0x130223dc55555553:0x20a442e1f79166a2!5m2!4m1!1i2!8m2!3d35.5024473!4d11.0457327!16s%2Fg%2F11s_m01yn4!19sChIJU1VVVdwjAhMRomaR9-FCpCA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 337 864 ext. 0.</t>
+          <t>The One Resort El Mansour is a 5-star hotel located in Mahdia, Tunisia, at the coordinates (35.5059436, 11.0359359). It features a variety of amenities, including a restaurant, bar, swimming pool, and fitness center. The hotel is also conveniently located near the beach, making it a great place to stay for those looking to enjoy the sun and sand.</t>
         </is>
       </c>
     </row>
@@ -11837,7 +11735,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>If you're in mahdia you can try Aktivaparthotel Laourient With Restaurant, and Possibility for Half Board. This top-rated hotel is perfect for travellers looking for accomodation and offers a range of hotel options to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, visit their website at https://www.google.com/maps/place/Aktivaparthotel+Laourient+With+Restaurant,+and+Possibility+for+Half+Board/data=!4m10!3m9!1s0x13022302a4010e61:0xef2078dac958e3ba!5m2!4m1!1i2!8m2!3d35.549202!4d11.026294!16s%2Fg%2F11jsr3z73w!19sChIJYQ4BpAIjAhMRuuNYydp4IO8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at +45 36 95 01 11.</t>
+          <t>The Aktivaparthotel Laourient is located in Mahdia, Tunisia. It offers restaurant services and the possibility for half board accommodation. The hotel is rated 5.0 stars by guests.</t>
         </is>
       </c>
     </row>
@@ -11932,9 +11830,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Dar Shems located at G34H+72J Dar Shems, Dar Shems. Rue Hassan Boussofara, Mahdia 5100. 
-This top-rated destination is perfect for Hebergement d'interieur lovers and offers a range of Hebergement d'interieur to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at  or call them at .</t>
+          <t>Dar Shems is a 5-star accommodation located in Mahdia, Tunisia, at (35.505703, 11.077523). Unfortunately, there is no further information about the place offered.</t>
         </is>
       </c>
     </row>
@@ -12041,7 +11937,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out El Jem Amphitheatre located at El Jem Amphitheatre, Route Mahdia, El Jem. This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Amphitheatre, Attraction touristique categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 07:00-16:30, but closed on []. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, call them at 73 630 093.</t>
+          <t>El Jem Amphitheatre, located in El Jem, Tunisia, is one of the best-preserved ancient Roman amphitheaters in the world. It boasts a remarkable history, having witnessed gladiatorial contests, chariot races, and various events throughout its existence. Currently, this historical landmark houses exhibitions of rare artifacts and hosts cultural events, attracting visitors with its exceptional architecture and significance.</t>
         </is>
       </c>
     </row>
@@ -12136,9 +12032,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great Cafe, check out Mahdia ksour essef located at CX8R+GM5 Mahdia ksour essef, 2 C87, Ksour Essef. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 35.41808, 10.99475. For more details, visit their website at https://www.google.com/maps/place/Mahdia+ksour+essef/data=!4m7!3m6!1s0x130221f16f3bb3af:0x9e00700344404236!8m2!3d35.4163611!4d10.9917727!16s%2Fg%2F11tw_b02xs!19sChIJr7M7b_EhAhMRNkJARANwAJ4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Mahdia ksour essef is a 5-star rated cafe located in Mahdia ksour essef, 2 C87, Ksour Essef with coordinates (35.41808, 10.99475). It's open from 6 am to 12 am every day and its main category is Cafe.</t>
         </is>
       </c>
     </row>
@@ -12245,9 +12139,7 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Hotel Nour Palace Resort &amp; Thalasso located at B.P. 79, G2PJ+68F Hotel Nour Palace Resort &amp; Thalasso, Zone Touristique Hiboune, Mahdia 5111. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel, Complexe hotelier to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 17.11708902, 102.93950244. For more details, visit their website at http://nourpalace.tn/ or call them at 73 682 500.</t>
+          <t>The Hotel Nour Palace Resort &amp; Thalasso is a luxury beachfront resort in Mahdia, Tunisia. It offers direct access to the beach, multiple swimming pools, a practice putting green, tennis courts, and a spa. The resort features 1597 reviews on Google Maps, with an average rating of 4.0. The main category of the resort is Hotel, and it is also categorized as a Resort Complex. The resort's full address is B.P. 79, G2PJ+68F Hotel Nour Palace Resort &amp; Thalasso, Zone Touristique Hiboune, Mahdia 5111, Tunisia. It is located at coordinates (17.11708902, 102.93950244).</t>
         </is>
       </c>
     </row>
@@ -12354,8 +12246,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a luxurious escape, check out Mahdia Palace Thalasso located in Zone Touristique. 
-This top-rated 5-star hotel offers cozy accommodations, a private beach area, and indoor and outdoor pools, making it the perfect destination for a relaxing getaway. With a rating of 4.2, it's a must-visit spot for travelers seeking respite and rejuvenation. To get there, you can use the GPS coordinates (35.50441, 11.06619) or simply visit their website at http://mahdiapalace.tn/ for more details. You can also reach them at 73 683 777 for any inquiries.</t>
+          <t>Mahdia Palace Thalasso is a 5 stars luxury hotel situated in Mahdia, Tunisia. It offers high-standard accommodations, a private beach area, indoor and outdoor swimming pools, and a full-service spa. The hotel is praised for its exceptional service, beautiful surroundings, spacious rooms, and a wide range of activities for guests of all ages.</t>
         </is>
       </c>
     </row>
@@ -12462,7 +12353,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>If you're in Mahdia, Mahdia Beach &amp; Aqua Park is a highly recommended hotel that offers a fantastic range of amenities for visitors interested in hotels and waterparks. With a rating of 3.7, it's a popular destination for tourists. For more information, visit their website at http://www.mahdia-beach.com/ or call them at 98 744 300.</t>
+          <t>Located in Mahdia, Mahdia Beach &amp; Aqua Park is a beachfront all-inclusive hotel offering bright rooms with balconies. Its facilities include a swimming pool, four restaurants, and an aqua park. Situated at the coordinates (35.5310956, 11.0331144), the hotel is conveniently accessible.</t>
         </is>
       </c>
     </row>
@@ -12569,7 +12460,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated hotel, Thalassa Mahdia is a must-visit spot. Located at Thalassa Mahdia, 61 Zone Touristique Mahdia BP, this destination offers a range of amenities including a private beach, spa, pools, restaurants, and a cafe. With a rating of 3.4, it's a highly recommended choice. To get more information, visit their website at http://www.thalassa-hotels.com/site/fr/article.php%3Fid_article%3D32 or call them at 73 682 333.</t>
+          <t>Thalassa Mahdia is a luxurious hotel located in Mahdia, Tunisia with coordinates (35.5029868, 11.0660113). It offers a heavenly retreat for tourists, boasting a stunning private beach, a revitalizing spa, multiple swimming pools, three enticing restaurants, and a captivating Moorish cafe. With an impressive 838 reviews, it has earned a rating of 3.4.</t>
         </is>
       </c>
     </row>
@@ -12672,7 +12563,8 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated hotel, check out Caribbean World Mahdia located at Caribbean World Mahdia, BP 196, Zone Touristique Mahdia Mahdia Jdeida, 5110. This 3.7-rated destination is perfect for hotel lovers and offers a range of categories to choose from. To get there, use these GPS coordinates: 35.4516687, 10.6801979. For more details, visit their website at https://www.google.com/maps/place/Caribbean+World+Mahdia/data=!4m10!3m9!1s0x130223015cc48a37:0x7d15af7e3ee3f74!5m2!4m1!1i2!8m2!3d35.5431746!4d11.030391!16s%2Fg%2F1trrxynz!19sChIJN4rEXAEjAhMRdD_u4_da0Qc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 682 400.</t>
+          <t>Caribbean World Mahdia is a lively all-inclusive beach resort situated at (35.4516687, 10.6801979) in Mahdia. 
+It features multiple restaurants, bars, outdoor pools, sports facilities, and a kids' club. Despite receiving mixed reviews, it remains a popular destination for its entertainment options and proximity to the beach.</t>
         </is>
       </c>
     </row>
@@ -12771,9 +12663,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Medina of Mahdia located at G339+F8C Medina of Mahdia, C82, Mahdia. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website at https://www.google.com/maps/place/Medina+of+Mahdia/data=!4m7!3m6!1s0x130223f778179ed9:0xbd25b8fe8deb98ed!8m2!3d35.5036967!4d11.0682686!16s%2Fg%2F11c5b66zd5!19sChIJ2Z4XePcjAhMR7Zjrjf64Jb0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Medina of Mahdia is a historic site located in Mahdia, Tunisia. It is a popular tourist destination, known for its well-preserved architecture and lively atmosphere. The medina is home to a variety of shops, restaurants, and cafes, as well as several mosques and other historic buildings. It is a great place to experience the sights, sounds, and smells of traditional Tunisian culture. The medina is located in the heart of Mahdia, just a short walk from the beach. It is easily accessible by public transportation or by car.</t>
         </is>
       </c>
     </row>
@@ -12876,9 +12766,7 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a good place to eat, check out Le Lido located at G328+VMW Le Lido, C82, Mahdia. 
-This top-rated destination is perfect for Restaurant lovers and has a rating of 3.7. 
-It's open during these hours: 10:00-01:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/Le+Lido/data=!4m7!3m6!1s0x130223f9e96f792d:0xf1b5669c926fc09b!8m2!3d35.502242!4d11.0667!16s%2Fg%2F1q5bkqw1z!19sChIJLXlv6fkjAhMRm8BvkpxmtfE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 681 339.</t>
+          <t>Le Lido is a restaurant located in Mahdia, Tunisia. It is known for its seafood dishes, particularly its grilled fish. The restaurant has a 3.7 rating on Google and is open from 10:00am to 1:00am daily. It is located at G328+VMW Le Lido, C82, Mahdia.</t>
         </is>
       </c>
     </row>
@@ -12985,7 +12873,7 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated Hotel, check out Topkapi Beach Mahdia located at G27W+VWW Topkapi Beach Mahdia, Mahdia. This destination is perfect for Hotel lovers and has a rating of 3.6. To get there, use these GPS coordinates: 35.5144206, 11.0471461. For more details, visit their website at http://www.topkapi-beach.com.tn/ or call them at 58 055 011.</t>
+          <t>Topkapi Beach Mahdia is a hotel located in Mahdia, Tunisia at coordinates 35.5144206, 11.0471461. It offers 2859 basic rooms with an outdoor swimming pool, an amphitheater, and a restaurant.</t>
         </is>
       </c>
     </row>
@@ -13092,10 +12980,7 @@
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a great place to eat, check out Restaurant Neptune located at G347+6PR Restaurant Neptune, Intersection, Av. 14 Janvier, Mahdia 5100. 
-This top-rated destination is perfect for restaurant lovers and offers a range of restaurant, bar, bar lounge, restaurant mediterraneen, restaurant de fruits de mer and bar sportif to choose from. 
-With a rating of 3.5, it's a must-visit spot. It's open during these hours: 12:00-05:00. 
-To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 23 163 153.</t>
+          <t>Restaurant Neptune, located in Mahdia, offers a coastal dining experience with Mediterranean and seafood dishes. Its menu features a variety of fish, grilled meats, and vegetarian options. The restaurant is situated at the intersection of Av. 14 Janvier and G347+6PR, providing easy access to both locals and tourists. With its picturesque views, friendly staff, and reasonable prices, Restaurant Neptune is a great choice for a casual meal or a special occasion.</t>
         </is>
       </c>
     </row>
@@ -13190,8 +13075,7 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Plage Mahdia located at Plage Mahdia, Mahdia. This top-rated destination is perfect for Plage lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.5204592, 11.0431296. For more details, visit their website at https://www.google.com/maps/place/Plage+Mahdia/data=!4m7!3m6!1s0x130223beaca26103:0x8399a1df096239cc!8m2!3d35.5212596!4d11.0429767!16s%2Fg%2F11c1nzy_s0!19sChIJA2GirL4jAhMRzDliCd-hmYM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Plage Mahdia is a highly-rated beach in Mahdia, Tunisia, boasting a 4.5-star rating from 146 reviews. With its convenient location at (35.5204592, 11.0431296), it offers a picturesque setting for swimming, sunbathing, and enjoying the beauty of the Mediterranean coastline.</t>
         </is>
       </c>
     </row>
@@ -13294,9 +13178,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a great place to eat, check out RESTO DARNA located at Av. 14 Janvier. 
-This top-rated destination is perfect for Restaurant lovers and has a variety of dishes to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day, so you can satisfy your cravings anytime. To get there, use these GPS coordinates: 35.508549411552, 11.057770024546. For more details, visit their website or call them at 54 676 088.</t>
+          <t>Welcome to RESTO DARNA, a beloved restaurant located at Av. 14 Janvier in the heart of Mahdia. Serving up traditional Tunisian cuisine, RESTO DARNA has earned a reputation for its delectable dishes and warm hospitality. With a 4.5-star rating based on 119 reviews, diners rave about their mouthwatering soups, fresh salads, flavorful couscous, and grilled seafood. If you're in Mahdia, make sure to stop by RESTO DARNA for an unforgettable culinary experience.</t>
         </is>
       </c>
     </row>
@@ -13403,7 +13285,7 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great café experience, check out Vitamin Sea located at G34C+35G Vitamin Sea, Av. Cap Africa, Mahdia. This top-rated destination is perfect for café lovers and offers a range of café options to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-01:30, but closed on []. To get there, use these GPS coordinates: 35.50759822087, 11.075653074081. For more details, visit their website at https://www.facebook.com/Vitamin.Sea.Mahdia/ or call them at 54 098 585.</t>
+          <t>Vitamin Sea cafe in Mahdia, Tunisia, is a popular spot for locals and tourists alike. The cafe offers a wide variety of juices, coffees, and other beverages, as well as sandwiches, salads, and other snacks. It is located on a busy street with plenty of seating both inside and out, making it a great place to relax and people-watch. The cafe is open 7 days a week from early morning until late at night, and has a friendly and welcoming staff. With its convenient location, great selection of food and drink, and friendly atmosphere, Vitamin Sea is a great place to grab a bite to eat or just relax with a cup of coffee.</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13380,7 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a relaxing day at the beach, head to Plage de Corniche Mahdia located on Av. 14 Janvier. This top-rated Plage is perfect for sunbathers and offers a range of activities to choose from. With a rating of 4.4, it's a must-visit spot. It's open during the daytime hours, but closed on Mondays. To get there, use these GPS coordinates: 35.508549411552, 11.057770024546.</t>
+          <t>This delightful beach boasts a lively atmosphere and stunning views. Located in the heart of Mahdia, the Plage de Corniche Mahdia offers a relaxing escape by the Mediterranean Sea. With its beautiful sands and refreshing waters, it's an ideal spot for sunbathing, swimming, and enjoying the coastal scenery.</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13475,7 @@
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>If you're in mahdia, check out Cimetiere marin de Mahdia located at G34H+MH6 Cimetiere marin de Mahdia, Mahdia. This top-rated destination is perfect for Cimetiere lovers and offers a range of Cimetiere to choose from. With a rating of 4.8, it's a must-visit spot. For more details, visit their website: https://www.google.com/maps/place/Cimeti%C3%A8re+marin+de+Mahdia/data=!4m7!3m6!1s0x1302240eded057a3:0x69fac6da8a9b616!8m2!3d35.5066531!4d11.0788848!16s%2Fg%2F1229cm8x!19sChIJo1fQ3g4kAhMRFrapqG2snwY?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Located in Mahdia, the Cimetiere marin de Mahdia offers a serene resting place with breathtaking views. This historic cemetery, situated between the Mediterranean Sea and the city, boasts a peaceful atmosphere and a rich history. Its well-maintained grounds and unique location make it a tranquil spot to pay respects and reflect.</t>
         </is>
       </c>
     </row>
@@ -13688,7 +13570,7 @@
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Gare ferroviere de Mahdia located at Gare ferroviere de Mahdia, Mahdia. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.6, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 35.5062265, 11.0303269. For more details, visit their website or call them at .</t>
+          <t>Located at the coordinates (35.5062265, 11.0303269) in the city of Mahdia, Tunisia, the Gare ferroviere de Mahdia is a train station that offers various services. Despite its unnamed status, it has received a rating of 3.6 based on 41 reviews, indicating a moderate level of customer satisfaction. Currently, there is no other relevant information available about the services, amenities, or specific features offered by the Gare ferroviere de Mahdia.</t>
         </is>
       </c>
     </row>
@@ -13795,7 +13677,7 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Restaurant Le Quai located at G328+XR2 Restaurant Le Quai, shr` frHt Hshd, Mahdia. This top-rated destination is perfect for Restaurant lovers. With a rating of 3.2, it's a must-visit spot. It's open during these hours: 10:30-23:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, call them at 73 681 867.</t>
+          <t>Restaurant Le Quai is a restaurant located in Mahdia, Tunisia. It offers a variety of dishes and drinks, including beers. The restaurant is open from 10:30am to 11pm, and is closed on Sundays. It is located at G328+XR2, shr` frHt Hshd, Mahdia. The coordinates of the restaurant are 5.2665963, -59.1499758.</t>
         </is>
       </c>
     </row>
@@ -13894,7 +13776,7 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>If you're in Mahdia, visit Musée de Mahdia, a top-rated museum located at G339+FCP Musee de Mahdia, Mtir, rue Sidi Jaber, Mahdia. With a 4.4-star rating, it features a range of categories like Musée and Lieu historique. Open daily during specified hours, it's a must-visit spot. Contact them at 73 690 535 or visit their website for more details.</t>
+          <t>Musee de Mahdia is a historical place in Mahdia, Tunisia, featuring archaeological exhibits. Located at (35.5033467, 11.0683046), the museum showcases ancient artifacts and mosaics, making it a popular destination for history enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -13989,7 +13871,7 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>If you're ever in mahdia and looking for a top-rated Restaurant, check out Gusto del Mare located at G354+2G8 Gusto del Mare, C82, Mahdia. With a rating of 4.8, it's a must-visit spot for Restaurant lovers. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/Gusto+del+Mare/data=!4m7!3m6!1s0x1302236d8aa95b07:0x4d61ec14d3dfa1c3!8m2!3d35.5075481!4d11.056333!16s%2Fg%2F11h4zkwt7l!19sChIJB1upim0jAhMRw6Hf0xTsYU0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Gusto del Mare** is a restaurant located in Mahdia. It offers a variety of dishes, and is highly rated by its customers. The restaurant is located at longitude 5.2665963 and latitude -59.1499758.</t>
         </is>
       </c>
     </row>
@@ -14088,7 +13970,7 @@
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great place to buy fish and seafood, check out marche de gros de poisson de mahdia. This top-rated market is located at Rue de Borj Othmani and offers a wide variety of fresh seafood to choose from. With a rating of 4.3, it's a must-visit spot for seafood lovers. It's open during these hours: 04:00-09:00, but closed on Mondays. To get there, use these GPS coordinates: 35.7221496, -5.8660947. For more details, visit their website at https://www.google.com/maps/place/marche+de+gros+de+poisson+de+mahdia/data=!4m7!3m6!1s0x130223f83619ce11:0x64c09a784a0adc63!8m2!3d35.5017077!4d11.0687765!16s%2Fg%2F11b7jckm99!19sChIJEc4ZNvgjAhMRY9wKSniawGQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Mahdia wholesale fish market is a renowned marketplace in Mahdia, Tunisia, featuring a wide variety of fresh seafood. Located at the coordinates (35.7221496, -5.8660947), the market operates from 04:00 to 09:00 daily, except on Mondays. This bustling marketplace is a must-visit for seafood lovers, offering an array of marine delicacies to choose from.</t>
         </is>
       </c>
     </row>
@@ -14183,7 +14065,7 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out plage mahdia located at G27X+WG3 plage mahdia. This top-rated destination is perfect for Centre commercial lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.5204592, 11.0431296.</t>
+          <t>Plage Mahdia, located at G27X+WG3 in Mahdia, Tunisia, is a popular shopping center. It is conveniently situated near the beach at coordinates (35.5204592, 11.0431296). With a rating of 4.5, it offers a variety of shopping options for visitors and locals alike.</t>
         </is>
       </c>
     </row>
@@ -14290,7 +14172,7 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Vitamin Sea located at G34C+35G Vitamin Sea, Av. Cap Africa, Mahdia. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-01:30. To get there, use these GPS coordinates: 35.50759822087, 11.075653074081. For more details, visit their website at https://www.facebook.com/Vitamin.Sea.Mahdia/ or call them at 54 098 585.</t>
+          <t>Vitamin Sea is a cafe located in Mahdia, Tunisia. It offers a variety of drinks such as juices and coffee. The cafe is open from 7:00 AM to 1:30 AM and is closed on Mondays. It is located at G34C+35G Vitamin Sea, Av. Cap Africa, Mahdia and can be reached at 54 098 585.</t>
         </is>
       </c>
     </row>
@@ -14389,7 +14271,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out marche de gros de poisson de mahdia located at marche de gros de poisson de mahdia, Rue de Borj Othmani. This top-rated destination is perfect for Marche aux poissons et fruits de mer lovers and offers a range of Marche aux poissons et fruits de mer to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 04:00-09:00, but closed on lundi. To get there, use these GPS coordinates: 35.7221496, -5.8660947.</t>
+          <t>Marché de gros de poisson de Mahdia is a popular seafood market in Mahdia, Tunisia. The market is located at latitude 35.7221496 and longitude -5.8660947. It is open from 4:00 AM to 9:00 AM, six days a week. The market is closed on Mondays. The market is known for its wide variety of fresh seafood, and it is a great place to buy fish, shrimp, squid, and other seafood.</t>
         </is>
       </c>
     </row>
@@ -14488,7 +14370,7 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a historical site to explore, consider visiting Borj el Kebir: Ottoman Fort. This top-rated destination is ideal for history enthusiasts and offers a range of experiences to enjoy. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-16:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at (link not available) or check out the owner's details: Borj el Kebir: Ottoman Fort (proprietaire).</t>
+          <t>Located in Mahdia, Tunisia, at coordinates (5.2665963, -59.1499758), Borj el Kebir: Ottoman Fort is a historical site with an average rating of 4.5 out of 225 reviews. Open from 09:00-16:00, it offers a glimpse into the city's rich history and boasts stunning architecture. With its unique angles and strategic location, Borj el Kebir: Ottoman Fort is a must-visit for history enthusiasts and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -14595,7 +14477,7 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out El Jem Amphitheatre located at El Jem Amphitheatre, Route Mahdia, El Jem. This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Amphitheatre, Attraction touristique to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 07:00-16:30. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at nan or call them at 73 630 093.</t>
+          <t>Located at coordinates (35.3, 10.71667), El Jem Amphitheatre is a well-preserved ancient Roman structure offering exhibitions of rare artifacts and hosting events.</t>
         </is>
       </c>
     </row>
@@ -14702,9 +14584,7 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out El Jem Amphitheatre located at Route Mahdia, El Jem. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Amphitheatre, Attraction touristique to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 07:00-16:30. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at  or call them at 73 630 093.</t>
+          <t>El Jem Amphitheatre, a remarkably preserved vestige of Roman history, invites you to explore its evocative ruins. With over 6000 reviews attesting to its splendor, this UNESCO World Heritage Site offers a unique glimpse into ancient gladiatorial contests and chariot races. Nestled in El Jem, Tunisia (35.3°N, 10.71667°E), the amphitheater boasts exceptional acoustics and serves as a captivating venue for music and cultural events. Immerse yourself in the grandeur of this historical landmark, where you can marvel at its intricate mosaics, subterranean chambers, and the sheer scale of its architectural masterpiece.</t>
         </is>
       </c>
     </row>
@@ -14811,7 +14691,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a historical landmark to visit, check out El Jem Amphitheatre located at Route Mahdia. This top-rated destination is perfect for Site historique lovers and offers a range of categories to choose from, including Site historique, Amphitheatre, and Attraction touristique. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 07:00-16:30, but closed on []. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website or call them at 73 630 093.</t>
+          <t>El Jem Amphitheatre is a well-preserved ancient Roman amphitheater located in El Jem, Tunisia. It is one of the largest and best-preserved Roman amphitheaters in the world, and it is a popular tourist destination. The amphitheater was built in the 3rd century AD, and it was used for gladiatorial contests and other public spectacles. Today, the amphitheater is open to the public, and it is a popular venue for concerts and other events.</t>
         </is>
       </c>
     </row>
@@ -14918,7 +14798,7 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out El Jem Amphitheatre located at Route Mahdia, El Jem. This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Amphitheatre, Attraction touristique to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 07:00-16:30, but closed on . To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at nan or call them at 73 630 093.</t>
+          <t>Nestled in the heart of Tunisia's mahdia region, El Jem Amphitheatre stands as an architectural marvel. This exceptionally preserved Roman amphitheater boasts an array of rare exhibits, immersing visitors in the grandeur of the past. At 35.3°N, 10.71667°E, this historical site beckons travelers to explore its well-preserved arena, elaborate mosaics, and intriguing underbelly. With a staggering 4.8 rating from over 6000 reviews, El Jem Amphitheater emerges as a must-visit destination for history buffs and culture enthusiasts alike.</t>
         </is>
       </c>
     </row>
@@ -15021,7 +14901,7 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a rich historical experience, head to Skifa el Kahla located at Skifa el Kahla, Mahdia. This top-rated historical place is perfect for history lovers and offers a range of historical experiences to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on unspecified days. To get there, use these GPS coordinates: 35.5038679, 11.0689419. For more details, visit their website at https://www.google.com/maps/place/Skifa+el+Kahla/data=!4m7!3m6!1s0x130223f79c5df563:0x5902b530760d4b81!8m2!3d35.5039271!4d11.0685681!16s%2Fg%2F122q9fkm!19sChIJY_VdnPcjAhMRgUsNdjC1Alk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 690 535.</t>
+          <t>Skifa el Kahla is a historical site located in Mahdia, Tunisia. It is a popular tourist destination, known for its artisanal shops, cafes, and port. The site has a rating of 4.4 and is open 24 hours a day. Skifa el Kahla is known for its historical and cultural significance, as well as its beautiful scenery. The site is also a popular spot for souvenir shopping and dining. With its convenient location, beautiful scenery, and rich history, Skifa el Kahla is a must-visit for anyone visiting Mahdia.</t>
         </is>
       </c>
     </row>
@@ -15120,7 +15000,7 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for something fun to do, check out Medina of Mahdia located at G339+F8C Medina of Mahdia, C82, Mahdia. This top-rated destination is perfect for Site historique lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website at https://www.google.com/maps/place/Medina+of+Mahdia/data=!4m7!3m6!1s0x130223f778179ed9:0xbd25b8fe8deb98ed!8m2!3d35.5036967!4d11.0682686!16s%2Fg%2F11c5b66zd5!19sChIJ2Z4XePcjAhMR7Zjrjf64Jb0?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Medina of Mahdia is a historical site located in Mahdia, Tunisia that attracts visitors with its diverse offerings. Situated at coordinates (35.5033467, 11.0683046), this medina is a vibrant place with a 4.4 rating based on 242 reviews. Here, travelers can delve into the local culture by exploring its historic sites, immersing themselves in the colorful markets where vendors sell spices, clothing, and more, and admiring the beautiful mosques. The Medina of Mahdia is open 24 hours a day and has a wide range of shops, cafes, and restaurants to provide visitors with a truly memorable experience.</t>
         </is>
       </c>
     </row>
@@ -15219,9 +15099,8 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a historical site, check out Borj el Kebir: Ottoman Fort located at G34G+3GF Borj el Kebir: Ottoman Fort, Mahdia. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Attraction touristique categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-16:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/Borj+el+Kebir:+Ottoman+Fort/data=!4m7!3m6!1s0x1302240928ffffff:0x5dc1e9b3fbb00733!8m2!3d35.5051974!4d11.0763029!16s%2Fg%2F11c1rsks78!19sChIJ____KAkkAhMRMwew-7PpwV0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Borj el Kebir: Ottoman Fort is a historic site located in Mahdia, Tunisia. It is a well-preserved Ottoman fort, boasting stunning architecture and fascinating historical significance. Visitors can delve into the past as they explore the fort's majestic angles, uncovering the intriguing stories etched within its walls.
+This popular attraction is situated at (5.2665963, -59.1499758), offering easy access for tourists. With its rich history and captivating architecture, Borj el Kebir: Ottoman Fort is a must-visit destination that will leave a lasting impression.</t>
         </is>
       </c>
     </row>
@@ -15320,7 +15199,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for something fun to do, check out Phare de Mahdia located at G35J+659 Phare de Mahdia, Mahdia. This top-rated destination is perfect for history buffs and offers a range of categories to choose from, including historical sites. With a rating of 4.4, it's a must-visit spot. It's open during these hours: Open 24 hours, but closed on []. To get there, use these GPS coordinates: 35.50775, 11.0805989.</t>
+          <t>The Mahdia Lighthouse, located at coordinates (35.50775, 11.0805989) in the city of Mahdia, Tunisia, stands as a prominent historical landmark. With a rating of 4.4 out of 5, it has garnered 140 reviews from visitors. While there is no official website for the lighthouse, it is open 24 hours a day and offers a unique blend of history and coastal views to travelers.</t>
         </is>
       </c>
     </row>
@@ -15419,7 +15298,7 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>If you're in Mahdia, don't miss Statue Taher Sfar at G33C+9J8. This popular historical site is a must-visit for anyone interested in local history. With a rating of 4.5, it's highly recommended. The site is open 24 hours a day, so you can visit at your convenience. Its exact coordinates are 35.518395472807, 11.041836647848 for easy navigation.</t>
+          <t>The Statue Taher Sfar is a historical site located in Mahdia, Tunisia, at coordinates (35.518395472807, 11.041836647848). It is open 24 hours a day and has received a rating of 4.5 out of 5 based on 15 reviews. No additional information is provided about the statue or its significance, but it is likely named after a notable Tunisian figure or historical event.</t>
         </is>
       </c>
     </row>
@@ -15522,9 +15401,8 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a historical place to visit, check out Skifa el Kahla, it's a top-rated spot for those interested in history and heritage. 
-It offers a range of attractions and experiences, including historical sites and artisanal shops.
-With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.5038679, 11.0689419. For more details, visit their website or call them at 73 690 535.</t>
+          <t>Skifa el Kahla is a historical site in Mahdia, Tunisia. 
+It's a popular tourist destination, offering a glimpse into the city's rich history. Skifa el Kahla is home to several historical monuments, including the Great Mosque of Mahdia and the Borj el Kebir fort. The site is also known for its traditional souks, cafes, shops, and artisanal products.</t>
         </is>
       </c>
     </row>
@@ -15623,7 +15501,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Statue Taher Sfar located at G33C+9J8 Statue Taher Sfar, Mahdia. This top-rated destination is perfect for Site historique lovers and offers a range of Site historique to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.518395472807, 11.041836647848.</t>
+          <t>Statue Taher Sfar is a historical site located in Mahdia, Tunisia. The statue commemorates Taher Sfar, a Tunisian nationalist and politician who played a leading role in the country's independence movement. The statue is situated at coordinates: (35.518395472807, 11.041836647848). It is open 24 hours a day and is rated 4.5 out of 5 stars by visitors.</t>
         </is>
       </c>
     </row>
@@ -15722,7 +15600,7 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Borj el Kebir: Ottoman Fort. This top-rated destination is located at G34G+3GF Borj el Kebir: Ottoman Fort, Mahdia and is perfect for Site historique lovers. With a rating of 4.5, it's a must-visit spot and some main reviews talk about architecture, forteresse and angle. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/Borj+el+Kebir:+Ottoman+Fort/data=!4m7!3m6!1s0x1302240928ffffff:0x5dc1e9b3fbb00733!8m2!3d35.5051974!4d11.0763029!16s%2Fg%2F11c1rsks78!19sChIJ____KAkkAhMRMwew-7PpwV0?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Borj el Kebir: Ottoman Fort, located in mahdia (5.2665963, -59.1499758), is a historical site with an average rating of 4.5. It offers visitors the opportunity to explore its Ottoman-era architecture and enjoy its historical significance.</t>
         </is>
       </c>
     </row>
@@ -15821,7 +15699,7 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>If you're in mahdia, check out Musee de Mahdia located at G339+FCP Musee de Mahdia, Mtir, rue Sidi Jaber, Mahdia. This top-rated destination is perfect for Musee lovers and offers a range of Musee and Lieu historique to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, call them at 73 690 535.</t>
+          <t>The Musee de Mahdia is located in Mahdia, Tunisia (35.5033467, 11.0683046). It is a history museum that features archaeological artifacts, including mosaics. The museum has received positive reviews, with visitors praising its collection and knowledgeable staff.</t>
         </is>
       </c>
     </row>
@@ -15920,7 +15798,8 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for something fun to do, check out Musee de Mahdia located at G339+FCP Musee de Mahdia, Mtir, rue Sidi Jaber, Mahdia. This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from, including Musee and Lieu Historique. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website or call them at 73 690 535.</t>
+          <t>**Musée de Mahdia**
+Located in Mahdia, Tunisia (coordinates: 35.5033467, 11.0683046), the Musée de Mahdia is a historical landmark dedicated to the preservation of local cultural heritage. It is primarily focused on showcasing archaeological artifacts, particularly the renowned Roman-era mosaics and ruins that Mahdia is known for. The museum offers visitors an immersive experience into the rich history and cultural significance of the region, making it a must-visit destination for history enthusiasts and culture seekers alike.</t>
         </is>
       </c>
     </row>
@@ -16019,10 +15898,7 @@
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>If you're in Mahdia, don't miss the Borj el Kebir: Ottoman Fort at G34G+3GF. 
-This top-rated historic site is perfect for history buffs and offers a range of attractions to choose from. 
-With a rating of 4.5 out of 5, it's a must-visit spot. It's open from 9 am to 4 pm daily. 
-To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/Borj+el+Kebir:+Ottoman+Fort/data=!4m7!3m6!1s0x1302240928ffffff:0x5dc1e9b3fbb00733!8m2!3d35.5051974!4d11.0763029!16s%2Fg%2F11c1rsks78!19sChIJ____KAkkAhMRMwew-7PpwV0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Borj el Kebir: Ottoman Fort is a historical site located in Mahdia, Tunisia. A well-preserved Ottoman fort with impressive architecture, Borj el Kebir overlooks the Mediterranean Sea and offers stunning views of the surrounding area. With its rich history and architectural significance, it's a popular tourist attraction that showcases the region's rich cultural heritage.</t>
         </is>
       </c>
     </row>
@@ -16121,7 +15997,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Musee de Mahdia located at G339+FCP Musee de Mahdia, Mtir, rue Sidi Jaber, Mahdia. This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website at  or call them at 73 690 535.</t>
+          <t>Visit the Musee de Mahdia, located in Mahdia, Tunisia, at the coordinates (35.5033467, 11.0683046). As a history buff, you'll find the museum filled with remarkable archaeological exhibits, including stunning mosaics. Get ready to explore the captivating past of this region, with the museum showcasing the city's rich heritage.</t>
         </is>
       </c>
     </row>
@@ -16220,9 +16096,7 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Musee de Mahdia located at G339+FCP Musee de Mahdia, Mtir, rue Sidi Jaber, Mahdia. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee, Lieu historique to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website or call them at 73 690 535.</t>
+          <t>Nestled in the heart of Mahdia, Tunisia, the acclaimed Musée de Mahdia is a captivating destination for those seeking historical and cultural immersion. The museum boasts an array of archaeological exhibits, particularly renowned for its impressive collection of ancient mosaics that showcase the rich artistry of the region. With its prime location in the city center at (35.5033467, 11.0683046), the museum invites visitors to delve into the captivating past of Mahdia and its role in Mediterranean history.</t>
         </is>
       </c>
     </row>
@@ -16321,7 +16195,7 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>If you're in mahdia, the Musee de Mahdia should definitely be on your list to visit. Located at G339+FCP Musee de Mahdia, Mtir, rue Sidi Jaber, Mahdia, this well known museum has a rating of 4.4 and boasts categories like Musee and Lieu historique. The museum is open during these hours: nan, but closed on . For more information, visit their website at nan or call them at 73 690 535.</t>
+          <t>Located in Mahdia, Tunisia, the Musee de Mahdia is a museum dedicated to showcasing the area's rich history. The museum features archaeological exhibits, including mosaics, artifacts, and other relics from the region's past. It offers visitors a glimpse into the town's historical significance and cultural heritage. The museum is situated at the coordinates (35.5033467, 11.0683046) and can be reached via phone at 73 690 535.</t>
         </is>
       </c>
     </row>
@@ -16420,10 +16294,7 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a captivating historical experience, visit the renowned Musee de Mahdia located on rue Sidi Jaber. 
-This top-rated museum is a must-visit destination for history enthusiasts, showcasing a remarkable collection of archaeological treasures. 
-With a rating of 4.4, it boasts a range of captivating exhibits, including stunning mosaics. 
-Their phone number is 73 690 535.</t>
+          <t>The Musee de Mahdia is a museum located in Mahdia, Tunisia. It is known for its archaeological collection, which includes mosaics and other artifacts. The museum is located at the following coordinates: (35.5033467, 11.0683046).</t>
         </is>
       </c>
     </row>
@@ -16526,8 +16397,8 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a remarkable hotel experience, visit Iberostar Selection Royal El Mansour located at Avenue Taher Sfar, Route de la Corniche, B.P. 217, El Jem. 
-This top-rated hotel is perfect for those seeking a relaxing and luxurious getaway. With a rating of 4.8, it's a must-visit spot. It's open 24/7. To get there, use these GPS coordinates: 35.5059436, 11.0359359. For more details, visit their website at https://www.iberostar.com/en/hotels/mahdia/iberostar-royal-el-mansour-thalasso/ or call them at 73 681 100.</t>
+          <t>Nestled on the picturesque coastline of Mahdia, Tunisia, the Iberostar Selection Royal El Mansour is a 4.8-star hotel renowned for its exceptional hospitality and extensive amenities. With 6715 positive reviews, this luxurious resort offers an unforgettable all-inclusive experience.
+Located at the coordinates (35.5059436, 11.0359359), the hotel boasts stunning sea views and is conveniently situated near the bustling city center. Guests can indulge in world-class thalassotherapy treatments, unwind on the pristine private beach, or engage in exhilarating activities such as quad biking and archery. The hotel's vibrant animation team ensures endless entertainment, while the diverse culinary options cater to every taste.</t>
         </is>
       </c>
     </row>
@@ -16622,8 +16493,7 @@
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated Cafe et restaurant de grillades, check out la voile bleue located at G22W+X7H la voile bleue, Bd du 14 Janvier, Mahdia 5100. 
-With a rating of 4.0, it's a must-visit spot for Cafe et restaurant de grillades lovers. To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, call them at 22 710 730.</t>
+          <t>La voile bleue is a cafe and grill restaurant located in Mahdia, Tunisia at the coordinates (35.5029868, 11.0660113). It has a rating of 4.0 out of 5 stars based on 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -16730,7 +16600,7 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Club my dreams located at G337+R63 Club my dreams, Rue Jean, Mahdia. This top-rated destination is perfect for Salle de jeux video lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 35.503999457218, 11.059730873998. For more details, visit their website at https://www.facebook.com/noomort/ or call them at 23 167 639.</t>
+          <t>Club my dreams is a well-rated video game arcade in Mahdia, Tunisia. It is located at coordinates (35.503999457218, 11.059730873998) and operates from 10:00 to 22:00. The arcade has a Facebook page and a website. It is owned by Club my dreams (proprietaire). The arcade's featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPQxESCAX-FbEKSllP6I0aRRPgTK4nYCcesVvGR=w408-h306-k-no.</t>
         </is>
       </c>
     </row>
@@ -16833,7 +16703,7 @@
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>If you're in mahdia, Mamma Lisa Cafe-Resto is a top-rated restaurant located at Mamma Lisa Cafe-Resto, Mahdia, Rue Sidi Marzouk, La Chebba 5170. With a rating of 4.6, it's a must-visit spot for food lovers. It's open 24 hours a day, so you can satisfy your cravings anytime. For more details, visit their website or call them at 50 430 068.</t>
+          <t>Mamma Lisa Cafe-Resto, located in Mahdia, Tunisia, is a 24-hour restaurant renowned for its delicious cuisine. Situated at the coordinates (35.2170214, 11.0492031), it offers a cozy ambiance and friendly service. With a rating of 4.6 based on 12 reviews, Mamma Lisa Cafe-Resto is a must-visit for food lovers.</t>
         </is>
       </c>
     </row>
@@ -16936,7 +16806,7 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a delicious meal, check out The Square located at M4F2+3WH The Square, Avenida De Mahdia, Kairouan. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website or call them at 77 234 494.</t>
+          <t>The Square is a restaurant located in M4F2+3WH Avenida De Mahdia, Kairouan. Its coordinates are (35.6727967, 10.0949059). The restaurant operates from Monday to Saturday from 10:00 am to 10:00 pm and is closed on Sundays. The restaurant offers a range of dishes and has received positive reviews from customers, with an average rating of 4.2 out of 5.</t>
         </is>
       </c>
     </row>
@@ -17031,7 +16901,7 @@
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Mahdia ksour essef located at CX8R+GM5 Mahdia ksour essef, 2 C87, Ksour Essef. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.41808, 10.99475. For more details, visit their website at https://www.google.com/maps/place/Mahdia+ksour+essef/data=!4m7!3m6!1s0x130221f16f3bb3af:0x9e00700344404236!8m2!3d35.4163611!4d10.9917727!16s%2Fg%2F11tw_b02xs!19sChIJr7M7b_EhAhMRNkJARANwAJ4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Mahdia ksour essef is a highly rated cafe in Mahdia, Tunisia, with a rating of 5.0. It is located at coordinates (35.41808, 10.99475). The cafe offers a warm and inviting ambiance, with a menu featuring a variety of beverages and snacks.</t>
         </is>
       </c>
     </row>
@@ -17134,7 +17004,7 @@
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>If you're in **mahdia** and looking for a great place to eat, check out **4.47**, located at **4.47, Zone Touristique, Av. Taher Sfar, Mahdia 5111.** This top-rated destination is perfect for **Cafe et restaurant de grillades** lovers and offers a range of categories to choose from, including **Cafe et restaurant de grillades** and **Cafe**. With a rating of **4.1**, it's a must-visit spot. It's open during these hours: **07:00-00:00** but closed on **[]**. To get there, use these GPS coordinates: **(35.5298785, 11.0181087)**. For more details, visit the owner's profile at: **https://www.google.com/maps/contrib/114441231384226754392**.</t>
+          <t>Discover the charming 4.47 restaurant, nestled in the scenic Zone Touristique of Mahdia, Tunisia. With its inviting ambiance and convenient location, 4.47 is the perfect spot to unwind and savor delicious cuisine. Offering a delectable blend of grilled dishes and cafe specialties, 4.47 caters to diverse tastes. Its central location makes it easily accessible, while its close proximity to the captivating coastline adds to its allure.</t>
         </is>
       </c>
     </row>
@@ -17237,9 +17107,7 @@
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great place to eat, check out RESTO DARNA located at Av. 14 Janvier, Mahdia. 
-This highly-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.508549411552, 11.057770024546. For more details, visit their website at https://www.google.com/maps/place/RESTO+DARNA/data=!4m7!3m6!1s0x1302232b07a677df:0x28b303f7a26fbc9e!8m2!3d35.5100325!4d11.0539664!16s%2Fg%2F11fpgpd0hr!19sChIJ33emBysjAhMRnrxvovcDsyg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 676 088.</t>
+          <t>RESTO DARNA is a restaurant located in Mahdia, Tunisia. It offers a variety of Tunisian dishes, including soups, salads, couscous, and grilled meats. The restaurant is open 24 hours a day and is located near the beach.</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17214,7 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated restaurant, check out Restaurant Borj Erras located at G348+2P7 Restaurant Borj Erras, Av. 14 Janvier, Mahdia. This popular destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 35.508549411552, 11.057770024546. For more details, visit their website at https://www.facebook.com/Raouf27288971 or call them at 27 288 971.</t>
+          <t>Restaurant Borj Erras is a restaurant located in Mahdia, with coordinates (35.508549411552, 11.057770024546). It offers a range of dishes, including Tunisian cuisine and seafood. Reviewers highlight its quality, reasonable prices, and delicious fish dishes. The restaurant is open from 12:00 pm to 00:00 am every day, and can be contacted by phone at 27 288 971.</t>
         </is>
       </c>
     </row>
@@ -17453,9 +17321,7 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>If you find yourself in mahdia and are looking for a place to eat, head over to Restaurant Chez Naima, located at G339+P93 Restaurant Chez Naima, Rue Mohamed Turki. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on dimanche. To get there, use these GPS coordinates: 35.504328167508, 11.068208006241. For more details, visit their website at https://www.facebook.com/Restaurant-CHEZ-NAIMA-100905351680064/ or call them at 93 627 617.</t>
+          <t>Restaurant Chez Naima is a popular dining spot in Mahdia, Tunisia, offering traditional Tunisian cuisine. Situated at the coordinates (35.504328167508, 11.068208006241), the restaurant has received high ratings for its food, particularly its fish dishes. With a cozy ambiance and a focus on fresh, locally sourced ingredients, Restaurant Chez Naima is a great choice for those seeking an authentic and delicious Tunisian meal.</t>
         </is>
       </c>
     </row>
@@ -17554,7 +17420,7 @@
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>In Mahdia, don't miss Resto l'antika at Av. Cap Africa, G34C+58H. This family-style restaurant has a 4.0-star rating and offers a great dining experience. Reviews mention the delicious seafood and excellent service. For more information or reservations, call 51 456 457.</t>
+          <t>Resto l'antika is a family restaurant located in G34C+58H Resto l'antika, Av. Cap Africa, Mahdia, Tunisia. It has a rating of 4.0 and offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is open every day and serves lunch and dinner.</t>
         </is>
       </c>
     </row>
@@ -17661,7 +17527,7 @@
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Cafe Gamra located at Place du Caire, Mahdia. This top-rated destination is perfect for Cafe lovers and has a wide range of Cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open daily between 8:00 - 00:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at http://www.cafe-gamra.com/ or call them at 73 680 916.</t>
+          <t>Cafe Gamra is a 4.1-rated cafe located in Mahdia, Tunisia (coordinates: 5.2665963, -59.1499758). It offers a variety of amenities including a featured image, reviews, website, owner information, main category, categories, rating, workday timing, closed days, phone, address, review keywords, link, and coordinates. Cafe Gamra is open from 8:00 AM to midnight and is known for its friendly servers, affordable prices, and popularity among tourists.</t>
         </is>
       </c>
     </row>
@@ -17764,9 +17630,7 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great cafeteria, check out cafe Fratello Aminos located at G363+3GH cafe Fratello Aminos, plage de corniche, Av. 14 Janvier, Mahdia 5100. 
-This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafeteria to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, visit their website at https://cafe-fratello-aminos.business.site/%3Futm_source%3Dgmb%26utm_medium%3Dreferral</t>
+          <t>Located in Mahdia, Tunisia,  café Fratello Aminos is a 24-hour cafeteria offering a cozy ambiance and delicious food. With a 4.3-star rating from 28 reviews, this place is highly recommended for those seeking a satisfying dining experience. Its exact location is at G363+3GH cafe Fratello Aminos, plage de corniche, Av. 14 Janvier, Mahdia 5100, with coordinates (35.5029868, 11.0660113).</t>
         </is>
       </c>
     </row>
@@ -17869,7 +17733,7 @@
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>If you're in mahdia, El Couzina is a top-rated restaurant located at El Couzina, Mahdia Center, Mahdia. With a rating of 4.8, it's a must-visit spot for food lovers. This destination offers a range of categories to choose from, including Restaurant. It's open daily from 10:00-23:00. For more details, visit their website or call them at 22 271 667.</t>
+          <t>El Couzina is a restaurant located in Mahdia Center, Mahdia. It offers a variety of dishes at affordable prices, making it a popular spot for locals and tourists alike. The restaurant is open from 10:00 to 23:00, and is closed on . It has received rave reviews, with many customers praising its delicious food and friendly service.</t>
         </is>
       </c>
     </row>
@@ -17972,7 +17836,7 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a great meal, check out Samir Chappati located at G26R+J9X Samir Chappati, Unnamed Road, Mahdia. This top-rated destination is perfect for Restaurant lovers and offers a variety of Restaurant categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:30-00:00, but closed on Monday. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at  or call them at 22 017 043.</t>
+          <t>Samir Chappati is a restaurant located in Mahdia, Guyana, renowned for its chapatis. It has a rating of 4.4 out of 5 based on 24 reviews and is open from 11:30 AM to midnight, except for Mondays. It is conveniently situated at G26R+J9X Samir Chappati, Unnamed Road, and is known for its delicious chapati cuisine.</t>
         </is>
       </c>
     </row>
@@ -18075,11 +17939,7 @@
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great place to eat, check out Bouji Pasta Food located at Av. 14 Janvier, Mahdia 5100. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open 24 hours a day, so you can enjoy their delicious food anytime. 
-To get there, use these GPS coordinates: 35.508549411552, 11.057770024546. For more details, visit their website 
-at https://www.google.com/maps/place/Bouji+Pasta+Food/data=!4m7!3m6!1s0x130223d61b7d9d99:0xaae82f09c7e9ce90!8m2!3d35.5048174!4d11.0676802!16s%2Fg%2F11sdq1dfwx!19sChIJmZ19G9YjAhMRkM7pxwkv6Ko?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 518 555.</t>
+          <t>Bouji Pasta Food, located in Mahdia (Tunisia), is a restaurant specializing in pizza. With a 4.7 rating based on 22 reviews, it is highly appreciated by its customers and offers 24/7 service. Its featured image showcases a mouth-watering pizza, and it also has an owner profile with the name "Bouji Pasta Food (proprietaire)".</t>
         </is>
       </c>
     </row>
@@ -18182,7 +18042,7 @@
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated restaurant, check out Restaurant Salvador located at Avenue Habib Bourgiba, Hiboun. This restaurant offers a range of categories to choose from and is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on . To get there, use these GPS coordinates: 35.5298785, 11.0181087. For more details, visit their website.</t>
+          <t>Restaurant Salvador is a highly-rated restaurant located in Mahdia, Tunisia (GPS coordinates: 35.5298785, 11.0181087). Open daily from 11 AM to 11 PM, the restaurant offers a delightful dining experience specializing in pasta dishes, as highlighted by its positive reviews.</t>
         </is>
       </c>
     </row>
@@ -18289,7 +18149,7 @@
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out kl@ zmn located at G33C+P2J kl@ zmn, Unnamed Road. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on dimanche. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://mobile.facebook.com/mondherbenzineb12/%3Fref%3Dbookmarks or call them at 56 109 278.</t>
+          <t>kl@ zmn is a restaurant located in Mahdia, Tunisia (coordinates: 5.2665963, -59.1499758). It offers a range of dishes and has received positive reviews, with a rating of 4.6 out of 5 on Google. The restaurant is open from 9am to 11pm, but is closed on Sundays. The phone number is 56 109 278.</t>
         </is>
       </c>
     </row>
@@ -18388,9 +18248,7 @@
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great restaurant, check out Glace Evelyne La Nicoise located at G33F+M2H Mahdia. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/Glace+Evelyne+La+Ni%C3%A7oise/data=!4m7!3m6!1s0x130224084087a08f:0xd92a9e0dc26522e!8m2!3d35.5041918!4d11.0726235!16s%2Fg%2F11fxvgbwzr!19sChIJj6CHQAgkAhMRLlIm3OCpkg0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Glace Evelyne La Nicoise is a restaurant located in Mahdia, French Guiana. It offers a variety of dishes, including traditional French cuisine and seafood. The restaurant is located at latitude 5.2665963 and longitude -59.1499758. It has been reviewed 14 times, with an average rating of 4.1 out of 5 stars. The restaurant is known for its friendly staff and delicious food.</t>
         </is>
       </c>
     </row>
@@ -18493,7 +18351,7 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>If you're in mahdia, Restaurant El Hamhama could be a great option. Located at G338+XX5 Restaurant El Hamhama, Av. 14 Janvier, this top-rated restaurant is perfect for Restaurant lovers. With a rating of 4.4 based on 8 reviews, it's a must-visit spot. It's open during these hours: 00:00-12:00, 15:00-00:00. To get there, use these GPS coordinates: 35.508549411552, 11.057770024546.</t>
+          <t>Restaurant El Hamhama is a local restaurant located in Mahdia, Tunisia. Its exact location is at G338+XX5 Restaurant El Hamhama, Av. 14 Janvier. The restaurant is open from midnight to noon, and then from 3pm to midnight. You can reach them by phone at 93 300 954.</t>
         </is>
       </c>
     </row>
@@ -18596,7 +18454,7 @@
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>If you're in mahdia and craving delicious food, Pizzaria Mario is the perfect destination for you, located at G23X+79G Pizzaria Mario, Av. Ali Belhouane. This top-rated restaurant offers a delightful culinary experience, perfect for Restaurant lovers. With a rating of 4.6, it's a must-visit spot in mahdia. It's open during these hours: 09:00-23:00. For more details, you can call them at 92 529 445.</t>
+          <t>Pizzaria Mario is a restaurant located in Mahdia, Tunisia. It offers a variety of pizzas and other Italian dishes. The restaurant is open from 9:00 AM to 11:00 PM and has a rating of 4.6 out of 5 on Google. The restaurant is located at the following coordinates: (35.505044416838, 11.048693865675).</t>
         </is>
       </c>
     </row>
@@ -18703,7 +18561,7 @@
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great place to eat, check out Makhmekh mahdia located at G27V+F6G Makhmekh mahdia, ljm`, shr` lHbyb bwrqyb@, Hiboun. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:30-01:00. To get there, use these GPS coordinates: 35.5181686, 11.042399. For more details, visit their website at https://www.facebook.com/makhmekhmahdia/ or call them at 56 242 323.</t>
+          <t>Makhmekh Mahdia is a restaurant located in Mahdia, Tunisia. Its main category is Restaurant and it offers a variety of dishes. It is rated 4.3 stars out of 5 by 7 reviewers on Google Maps. The restaurant is open from 10:30 AM to 1:00 PM and is located at G27V+F6G in Makhmekh Mahdia.</t>
         </is>
       </c>
     </row>
@@ -18802,9 +18660,7 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out La grange located at F3X7+P2H La grange, Zone touristique, Mahdia. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 00:00-13:00. To get there, use these GPS coordinates: 53.782994071, -2.6541115. For more details, visit their website at https://www.google.com/maps/place/La+grange/data=!4m7!3m6!1s0x1302236b665dfe67:0x13f319f63af76ca7!8m2!3d35.4993151!4d11.0626164!16s%2Fg%2F11jqw_q0dq!19sChIJZ_5dZmsjAhMRp2z3OvYZ8xM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>La Grange is a highly-rated restaurant in Mahdia, located at the coordinates (53.782994071, -2.6541115). It has received 2 reviews and has an average rating of 5.0.</t>
         </is>
       </c>
     </row>
@@ -18907,9 +18763,7 @@
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Dhiefa located at 19 shr` lTyb lmhyry, Mahdia 5100. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-16:00, but closed on dimanche. To get there, use these GPS coordinates: 35.5029868, 11.0660113. For more details, call them at 22 831 834.</t>
+          <t>Dhiefa is a pizzeria located in Mahdia, Tunisia. It is open from 06:00-16:00 every day except Sundays. The pizzeria has a rating of 5.0 stars based on 2 reviews. The owner of the pizzeria is Dhiefa, who has a link to their Google profile. Dhiefa is located at the coordinates (35.5029868, 11.0660113).</t>
         </is>
       </c>
     </row>
@@ -19008,9 +18862,8 @@
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated restaurant, check out Restaurant CLEOPATRE located at G343+2XW Restaurant CLEOPATRE, Av. Bechir Sfar, Mahdia. 
-This restaurant is perfect for restaurant lovers and offers a range of restaurant categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-20:00. To get there, use these GPS coordinates: 35.505355066447, 11.059236317269.</t>
+          <t>**Restaurant CLEOPATRE**
+Located on Av. Bechir Sfar in Mahdia, GPS coordinates (35.505355066447, 11.059236317269), Restaurant CLEOPATRE is a renowned dining destination offering an unforgettable culinary experience. With a 5-star rating based on positive customer reviews, this restaurant specializes in providing exquisite dishes that cater to the discerning palate. Its business hours extend from 9 AM to 8 PM, offering ample opportunity to savor its delectable offerings.</t>
         </is>
       </c>
     </row>
@@ -19117,9 +18970,7 @@
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Restaurant Chez Naima located at G339+P93 Restaurant Chez Naima, Rue Mohamed Turki, Mahdia. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant options to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on dimanche. To get there, use these GPS coordinates: 35.504328167508, 11.068208006241. For more details, visit their website at https://www.facebook.com/Restaurant-CHEZ-NAIMA-100905351680064/ or call them at 93 627 617.</t>
+          <t>Restaurant Chez Naima is a highly-rated restaurant located in Mahdia, Tunisia. Known for its authentic Tunisian cuisine, the restaurant offers a wide range of dishes featuring fresh seafood, traditional meats, and vegetarian options. Located at G339+P93 Restaurant Chez Naima, Rue Mohamed Turki, it is easily accessible and open daily from 8:00 AM to 6:00 PM, except on Sundays. With its focus on quality ingredients, reasonable prices, and a warm atmosphere, Restaurant Chez Naima has earned a reputation among locals and tourists alike for providing a memorable dining experience in the heart of Mahdia.</t>
         </is>
       </c>
     </row>
@@ -19222,7 +19073,7 @@
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out El Couzina located at El Couzina, Mahdia Center, Mahdia. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on . To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website at https://www.google.com/maps/place/El+Couzina/data=!4m7!3m6!1s0x13022393f96670cf:0x309ddf63d4d56755!8m2!3d35.5053149!4d11.0643325!16s%2Fg%2F11kg_41qc8!19sChIJz3Bm-ZMjAhMRVWfV1GPfnTA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 271 667.</t>
+          <t>El Couzina, located in Mahdia Center, Mahdia, is a highly-rated restaurant (4.8/5) known for its delicious cuisine. With a focus on customer satisfaction, as evidenced by its numerous positive reviews, El Couzina offers a memorable dining experience. Its prime location makes it easily accessible to both locals and tourists.</t>
         </is>
       </c>
     </row>
@@ -19325,9 +19176,7 @@
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great place to eat, check out Samir Chappati located at G26R+J9X Samir Chappati, Unnamed Road, Mahdia. 
-This top-rated restaurant is perfect for food lovers and offers a range of delicious options to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:30-00:00, but closed on Monday. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website or call them at 22 017 043.</t>
+          <t>Samir Chappati is located in Mahdia at the coordinates (5.2665963, -59.1499758). The restaurant has a rating of 4.4 and is closed on Mondays. The main category of Samir Chappati is Restaurant, and it specializes in offering chapati dishes.</t>
         </is>
       </c>
     </row>
@@ -19430,7 +19279,7 @@
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated Restaurant, check out Bouji Pasta Food located at Av. 14 Janvier, Mahdia 5100. This Restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open 24h/24, so you can visit anytime. To get there, use these GPS coordinates: 35.508549411552, 11.057770024546. For more details, visit their website at or call them at 24 518 555.</t>
+          <t>Bouji Pasta Food is a restaurant located in Mahdia (Tunisia), at the coordinates (35.508549411552, 11.057770024546). The restaurant offers a wide variety of pizzas, and is open 24 hours a day. It has a rating of 4.7 out of 5 stars on Google Maps, and has received 22 reviews. The restaurant's owner is 'Bouji Pasta Food (proprietaire)'.</t>
         </is>
       </c>
     </row>
@@ -19537,7 +19386,7 @@
       </c>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out kl@ zmn located at G33C+P2J Unnamed Road, Mahdia. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on dimanche. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://mobile.facebook.com/mondherbenzineb12/%3Fref%3Dbookmarks or call them at 56 109 278.</t>
+          <t>kl@ zmn is a restaurant located in Mahdia, Tunisia, offering a varied menu with affordable prices. It has a 4.6 rating based on 17 reviews, and is open from 9am to 11pm, except on Sundays. The restaurant's website is https://mobile.facebook.com/mondherbenzineb12/%3Fref%3Dbookmarks.</t>
         </is>
       </c>
     </row>
@@ -19636,10 +19485,7 @@
       </c>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for somewhere great to eat, check out Glace Evelyne La Nicoise at G33F+M2H Glace Evelyne La Nicoise. 
-This top-rated restaurant is perfect for Restaurant lovers and their rating of 4.1 makes them a must-visit spot. 
-They're open from 10:00-22:00 during the week. 
-To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website provided in the link.</t>
+          <t>**Glace Evelyne La Nicoise** is a restaurant located in Mahdia with GPS coordinates of (5.2665963, -59.1499758). The restaurant has a rating of 4.1 based on 14 reviews. It serves a variety of dishes and offers a terrace seating area. The restaurant is open from 10:00 AM to 10:00 PM and is closed on Tuesdays and Thursdays.</t>
         </is>
       </c>
     </row>
@@ -19742,9 +19588,7 @@
       </c>
       <c r="Y188" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Kafteji Nabil located at Rue de Borj Othmane, Mahdia 5100. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-14:00, but closed on mercredi. To get there, use these GPS coordinates: 35.507469479569, 11.07988861107. For more details, visit their website at https://www.google.com/maps/place/Kafteji+Nabil/data=!4m7!3m6!1s0x130223a099780b6f:0x3322fb8238f1957a!8m2!3d35.5030239!4d11.0691918!16s%2Fg%2F11q58fx_73!19sChIJbwt4maAjAhMRepXxOIL7IjM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 342 335.</t>
+          <t>**Kafteji Nabil**, located in Mahdia (35.507469479569, 11.07988861107), is a popular fast food joint offering delicious treats. With a remarkable rating of 4.8 out of 5, it has earned the appreciation of many customers. Kafteji Nabil is known for its exceptional service and welcoming ambiance. Operating from 8:00 AM to 2:00 PM, it remains closed on Wednesdays. For quick inquiries, you can reach out to them at 24 342 335.</t>
         </is>
       </c>
     </row>
@@ -19843,7 +19687,7 @@
       </c>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Restaurant chey Ali mT`m sh`by located at Rue de Borj Othmani, Mahdia. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.507469479569, 11.07988861107. For more details, visit their website at https://www.google.com/maps/place/Restaurant+chey+Ali+%D9%85%D8%B7%D8%B9%D9%85+%D8%B4%D8%B9%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1302236e5d3276db:0x8de624090a0be49f!8m2!3d35.5034698!4d11.0694299!16s%2Fg%2F11jdkn6trl!19sChIJ23YyXW4jAhMRn-QLCgkk5o0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 335 035.</t>
+          <t>Restaurant chey Ali mT`m sh`by is a restaurant located in Mahdia, Tunisia. It is known for its seafood dishes. The restaurant is located at the coordinates (35.507469479569, 11.07988861107).</t>
         </is>
       </c>
     </row>
@@ -19946,9 +19790,7 @@
       </c>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Pizzeria sarra located at F2VR+VF2 Pizzeria sarra, Ezzahra, Mahdia. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.50018, 11.00089. For more details, visit their website at  or call them at 20 633 792.</t>
+          <t>Pizzeria sarra is a restaurant located in Mahdia, Tunisia. It offers a variety of pizza and other Italian dishes. The restaurant is open 24 hours a day, and it is located a few steps from the beach. The restaurant has a 4.9-star rating on Google, and it is known for its delicious food and friendly service.</t>
         </is>
       </c>
     </row>
@@ -20047,10 +19889,7 @@
       </c>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>If you find yourself in mahdia and in search of a delicious fast food adventure, head to **kskrwt bshyr Casse-croute Bachir** at G34C+5MR, Av. Cap Africa, Mahdia.
-This top-rated spot is a must-try for fast food enthusiasts, with a rating of 4.8 based on 9 reviews. Open from 07:00-16:00 on all days except Monday, you can savor their delectable offerings at your convenience.
-To navigate to this culinary gem, simply follow these GPS coordinates: latitude 35.50759822087, longitude 11.075653074081. For further details, visit their website or call the establishment.
-Please note that this description is based on the information available and may be subject to change. It is recommended to confirm the details directly with the restaurant before your visit.</t>
+          <t>kskrwt bshyr Casse-croute Bachir is a fast food restaurant located in Mahdia, Tunisia, at the coordinates (35.50759822087, 11.075653074081). It is open from 7:00 AM to 4:00 PM, Tuesday through Sunday. The restaurant has a 4.8 rating out of 5 based on 9 reviews. It offers a variety of fast food options, and is known for its friendly service.</t>
         </is>
       </c>
     </row>
@@ -20153,7 +19992,7 @@
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated restaurant, check out Restaurant Essouk mT`m lswq located at G22X+86W Mahdia. With a rating of 5.0, it's a must-visit spot for Restaurant lovers. It's open during these hours: 09:00-17:00, but closed on []. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at nan or call them at 58 646 235.</t>
+          <t>Restaurant Essouk mT`m lswq is a highly-rated (5.0 based on 5 reviews) restaurant located in Mahdia, Tunisia. It is a great spot for dining, offering a diverse menu in a cozy atmosphere. The restaurant is conveniently located at G22X+86W and has extended hours from 9 AM to 5 PM.</t>
         </is>
       </c>
     </row>
@@ -20248,7 +20087,7 @@
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Chapati Venus located at Chapati Venus, 205 shr` lHbyb bwrqyb@. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/Chapati+Venus/data=!4m7!3m6!1s0x1302230834d29849:0x12ab3f662ccf7d46!8m2!3d35.506964!4d11.0582137!16s%2Fg%2F11kncrywr8!19sChIJSZjSNAgjAhMRRn3PLGY_qxI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Chapati Venus** is an Indian restaurant in Mahdia with a 4.2 rating out of 5 from 5 reviews. Located at (5.2665963, -59.1499758), it offers a dining experience in a cozy ambiance.</t>
         </is>
       </c>
     </row>
@@ -20351,7 +20190,7 @@
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>Discover Fejjari food, a top-rated Restaurant located at G24X+7G2 Fejjari food, Mahdia. This must-visit destination boasts a superb rating of 5.0 and is ideal for Restaurant enthusiasts. Its operating hours are 08:00-21:00. For GPS navigation, use these coordinates: 5.2665963, -59.1499758.</t>
+          <t>Fejjari Food is a restaurant located in Fejjari food, Mahdia, with coordinates (5.2665963, -59.1499758). It is open from 8:00 AM to 9:00 PM and is highly rated with 5.0 stars out of 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -20446,7 +20285,7 @@
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out News located at G347+6R4 News, Mahdia. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot.</t>
+          <t>News is a highly-rated restaurant located in Mahdia, Guyana. Offering a wide variety of cuisines, News is a popular dining destination for locals and tourists alike. The restaurant's convenient location, at coordinates (5.2665963, -59.1499758), makes it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -20541,7 +20380,7 @@
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a great Restaurant experience, check out Bambalouni - fTyr located at G355+6C9 Bambalouni - fTyr, Av. 14 Janvier, Mahdia. This top-rated destination is renowned for its Restaurant cuisine and offers a cozy ambiance. With a rating of 4.0, this spot is widely recommended by customers. Although it's open during these hours: nan, it's always best to check their website or call ahead to confirm their availability. To find Bambalouni - fTyr, use these GPS coordinates: 35.508549411552, 11.057770024546</t>
+          <t>"Bambalouni - fTyr" is a restaurant located at G355+6C9 Bambalouni - fTyr, Av. 14 Janvier, Mahdia, Tunisia with coordinates (35.508549411552, 11.057770024546).</t>
         </is>
       </c>
     </row>
@@ -20644,10 +20483,7 @@
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Ettabouna Fast Food located at G22W+X7F Ettabouna Fast Food, Mahdia. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 5.2665963, -59.1499758. 
-Call them at 23 810 450 for more details.</t>
+          <t>**Ettabouna Fast Food** is a Tunisian restaurant located in Ettabouna Fast Food, Mahdia (35.5024422, 11.0456836). The restaurant offers a wide variety of Tunisian dishes. It is open 24 hours a day, and it is closed on Fridays. The average rating of the restaurant is 5.0 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -20746,7 +20582,7 @@
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>If you're in mahdia, SALOON FOOD (coffe fast food ) is a top-rated Pizzeria located at G22X+HH2 SALOON FOOD (coffe fast food ), Mahdia. With a 5.0 rating, this must-visit spot is open from 04:00-00:00, but closed on []. To get there, use these GPS coordinates: 5.2665963, -59.1499758. For more details, visit their website at https://www.google.com/maps/place/SALOON+FOOD+%28coffe+fast+food+%29/data=!4m7!3m6!1s0x1302230067e48ceb:0x325f5b2f36091507!8m2!3d35.5013921!4d11.050526!16s%2Fg%2F11vm9nn35m!19sChIJ64zkZwAjAhMRBxUJNi9bXzI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone_number].</t>
+          <t>SALOON FOOD is a pizzeria located in Mahdia, Tunisia. It offers fast food and coffee, and is open from 4:00 am to midnight. The pizzeria is highly rated with 5 stars, and is located at G22X+HH2.</t>
         </is>
       </c>
     </row>
@@ -20845,7 +20681,7 @@
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for a top-rated restaurant, check out Amir Pastry and Food located at G24P+C5Q. This 5-star destination is perfect for dining out with a range of cuisines to choose from. It's open during these hours: 07:15-23:00. To get there, use these GPS coordinates: 5.2665963, -59.1499758.</t>
+          <t>Amir Pastry and Food, located in Mahdia (coordinates 5.2665963, -59.1499758), is a highly-rated restaurant (5.0/5 based on 1 review) that specializes in pastries and food. It's open daily from 07:15 to 23:00 and offers a cozy ambiance with a featured image showcasing its inviting interior. Despite lacking a website or phone number, Amir Pastry and Food's physical address at G24P+C5Q allows for easy access for dine-in experiences.</t>
         </is>
       </c>
     </row>
@@ -20944,10 +20780,7 @@
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and looking for reliable transportation, consider Station Louage Mahdia located at F3X3+577 Station Louage Mahdia. 
-This well-known destination is perfect for those needing transportation services and is rated 3.1. 
-It's open 24 hours a day, 7 days a week, so you can get where you need to go at any time. 
-For more details, visit their website or call them for assistance.</t>
+          <t>Station Louage Mahdia is a transportation service located in Mahdia, Tunisia. Its exact coordinates are (long: 11.0683046, lat: 35.5033467). This business offers a 24/7 service to its clients.</t>
         </is>
       </c>
     </row>
@@ -21042,7 +20875,7 @@
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and searching for a bus station, consider Gare routiere de Mahdia at Gare routiere de Mahdia, C96. This highly-rated bus station is a popular spot among travelers and locals. Please note that the hours of operation are currently unavailable, and the business is closed on undisclosed days. For GPS navigation, use the coordinates: 35.50472, 11.06222. For more details, visit their website or contact them at the provided phone number.</t>
+          <t>Gare routière de Mahdia is a bus stop located in Mahdia, Tunisia. It is a small bus station with a few amenities, including a waiting area and a ticket counter. The station is located in the center of the city, making it easy to get to from anywhere in Mahdia. The station is also well-connected to other parts of the country, making it easy to travel to other cities in Tunisia.</t>
         </is>
       </c>
     </row>
@@ -21137,7 +20970,7 @@
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>If you're in Mahdia and need reliable transportation, Bus station STS (Mahdia - Sousse) at G29H+MCG shr` lHbyb bwrqyb@, Hiboun is an excellent choice. With a top rating of 5.0, this service provider offers efficient and convenient transportation solutions. Open during regular hours, they provide a range of services to meet your travel needs. For more details, visit their website at https://www.google.com/maps/place/Bus+station+STS+%28Mahdia+-+Sousse%29/data=!4m7!3m6!1s0x130223fcaf263bff:0x50959522d111ef44!8m2!3d35.5191805!4d11.0285716!16s%2Fg%2F11r97ht1n1!19sChIJ_zsmr_wjAhMRRO8R0SKVlVA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>This bus station is located in mahdia, Tunisia, at coordinates (35.5181686, 11.042399). It's focused on providing transportation services to the area. Reach them at https://www.google.com/maps/place/Bus+station+STS+%28Mahdia+-+Sousse%29/data=!4m7!3m6!1s0x130223fcaf263bff:0x50959522d111ef44!8m2!3d35.5191805!4d11.0285716!16s%2Fg%2F11r97ht1n1!19sChIJ_zsmr_wjAhMRRO8R0SKVlVA?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
         </is>
       </c>
     </row>
@@ -21236,8 +21069,7 @@
       </c>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a reliable transportation option, check out Station Louage Mahdia located at F3X3+577 Station Louage Mahdia, Mahdia. This top-rated destination is perfect for travelers and offers a range of services to choose from. With a rating of 3.1, it's a must-visit spot for transportation needs. It's open during these hours: Ouvert 24h/24,
-To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website at https://www.google.com/maps/place/Station+Louage+Mahdia/data=!4m7!3m6!1s0x130223e143c2adf5:0x7ceb714dedbd07fd!8m2!3d35.4979073!4d11.0531716!16s%2Fg%2F11c1nc3tcz!19sChIJ9a3CQ-EjAhMR_Qe97U1x63w?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Station Louage Mahdia is a passenger transportation station located at F3X3+577 in Mahdia, Tunisia. Station Louage Mahdia operates 24 hours a day and is highly rated with 3.1 stars based on 86 reviews.</t>
         </is>
       </c>
     </row>
@@ -21332,9 +21164,7 @@
       </c>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a reliable transportation service, check out Bus station STS (Mahdia - Sousse) at G29H+MCG Bus station STS (Mahdia - Sousse), shr` lHbyb bwrqyb@, Hiboun. 
-This top-rated destination offers a range of transportation services to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.5181686, 11.042399. For more details, visit their website at https://www.google.com/maps/place/Bus+station+STS+%28Mahdia+-+Sousse%29/data=!4m7!3m6!1s0x130223fcaf263bff:0x50959522d111ef44!8m2!3d35.5191805!4d11.0285716!16s%2Fg%2F11r97ht1n1!19sChIJ_zsmr_wjAhMRRO8R0SKVlVA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at or call them at (Number not provided).</t>
+          <t>Bus station STS (Mahdia - Sousse) is a service de transport located at coordinates (35.5181686, 11.042399) in mahdia.</t>
         </is>
       </c>
     </row>
@@ -21433,7 +21263,7 @@
       </c>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Station Louage Mahdia located at F3X3+577 Station Louage Mahdia, Mahdia. This top-rated destination is perfect for Societe de transport routier lovers and offers a range of Societe de transport routier to choose from. With a rating of 3.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.5033467, 11.0683046. For more details, visit their website at https://www.google.com/maps/place/Station+Louage+Mahdia/data=!4m7!3m6!1s0x130223e143c2adf5:0x7ceb714dedbd07fd!8m2!3d35.4979073!4d11.0531716!16s%2Fg%2F11c1nc3tcz!19sChIJ9a3CQ-EjAhMR_Qe97U1x63w?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station Louage Mahdia is a public transportation hub located in Mahdia, Tunisia. It is a major hub for long-distance bus services, connecting Mahdia to other cities and towns across Tunisia. The station is located at the coordinates (35.5033467, 11.0683046) and is open 24 hours a day. The station offers ticket sales, baggage storage, and other amenities to passengers.</t>
         </is>
       </c>
     </row>
@@ -21528,7 +21358,7 @@
       </c>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for something fun to do, check out Gare ferroviere de Mahdia located at Gare ferroviere de Mahdia, Mahdia. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.5062265, 11.0303269. For more details, visit their website at https://www.google.com/maps/place/Gare+ferrovi%C3%A8re+de+Mahdia/data=!4m7!3m6!1s0x130223fa324eb5a1:0x9f096f6a36cb541b!8m2!3d35.5008549!4d11.0645461!16s%2Fm%2F0131vl06!19sChIJobVOMvojAhMRG1TLNmpvCZ8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Mahdia train station offers rail services to travelers and is located in Mahdia, Tunisia. It has received mixed reviews from users, with an average rating of 3.6 out of 5. Its exact location can be found at the coordinates 35.5062265, 11.0303269, and it has become a transportation hub for the city.</t>
         </is>
       </c>
     </row>
@@ -21627,9 +21457,7 @@
       </c>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a good hotel, check out Primasol El Mehdi Hotel located at 5100,, Av. de la Corniche, Mahdia. 
-This top-rated destination is perfect for Gare lovers. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.5176956, 11.0439406. For more details, call them at 73 671 300.</t>
+          <t>Primasol El Mehdi Hotel is a 4.2-star hotel located in Mahdia, Tunisia. It is a train station that offers a range of amenities, including a restaurant, bar, and fitness center. The hotel is situated in the city center, close to the beach and other attractions.</t>
         </is>
       </c>
     </row>
@@ -21724,9 +21552,7 @@
       </c>
       <c r="Y208" t="inlineStr">
         <is>
-          <t>If you're in mahdia, check out Gare routiere de Mahdia located at Gare routiere de Mahdia, C96, Mahdia. 
-This popular destination is perfect for Arret de bus lovers and offers a range of categories to choose from. 
-With a rating of 2.3, it's worth a visit. To get there, use these GPS coordinates: 35.50472, 11.06222.</t>
+          <t>The Mahdia bus station is located in Mahdia, Tunisia, at the coordinates (35.50472, 11.06222). It offers bus services to various destinations and is a convenient transportation hub for travelers. The station is easily accessible and provides a comfortable waiting area for passengers.</t>
         </is>
       </c>
     </row>
@@ -21829,7 +21655,7 @@
       </c>
       <c r="Y209" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a top-rated gas station, check out Station Service Ola Energy located at Av. Farhat Hached, Mahdia 5100. This destination is perfect for motorists and offers a range of services including a cafeteria, car rental agency, and restaurant. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 35.501506575272, 11.065588006004. For more details, visit their website at https://www.google.com/maps/place/Station+Service+Ola+Energy/data=!4m7!3m6!1s0x130223f246882ff9:0xbe6fb4e62338287b!8m2!3d35.5012736!4d11.0652979!16s%2Fg%2F11r3whqx1k!19sChIJ-S-IRvIjAhMReyg4I-a0b74?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 400 242.</t>
+          <t>Station Service Ola Energy is a gas station located at Av. Farhat Hached, Mahdia 5100, Tunisia. It is open 24 hours a day and offers a variety of services, including fuel, car rental, and a cafeteria. The gas station is highly rated by customers, with an average rating of 5.0 out of 5.</t>
         </is>
       </c>
     </row>
@@ -21924,9 +21750,7 @@
       </c>
       <c r="Y210" t="inlineStr">
         <is>
-          <t>If you're in mahdia and looking for a reliable transportation service, consider Bus station STS (Mahdia - Sousse) at G29H+MCG Hiboun. 
-This top-rated destination offers transportation services and has a rating of 5.0. To get there, use these GPS coordinates: 35.5181686, 11.042399. 
-For more details, visit their link at https://www.google.com/maps/place/Bus+station+STS+%28Mahdia+-+Sousse%29/data=!4m7!3m6!1s0x130223fcaf263bff:0x50959522d111ef44!8m2!3d35.5191805!4d11.0285716!16s%2Fg%2F11r97ht1n1!19sChIJ_zsmr_wjAhMRRO8R0SKVlVA?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Bus station STS (Mahdia - Sousse) is a transportation service located in Hiboun, Mahdia, Tunisia. Coordinates are: (35.5181686, 11.042399).</t>
         </is>
       </c>
     </row>
